--- a/docs/Project_Tracker.xlsx
+++ b/docs/Project_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potbelly-my.sharepoint.com/personal/anicia_clayton_potbelly_com/Documents/Desktop/linguallearn-portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_1B14DB0FC593A75196C6933F0CB991BF92D0DE60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DCC48FF-FC5D-430B-9EBE-23E0F6BE1FAB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{CE5F785D-15DF-442D-BF02-6C94E5833220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="389">
   <si>
     <t>LINGUALLEARN AI - PROJECT TRACKER</t>
   </si>
@@ -1192,12 +1192,21 @@
   <si>
     <t>Demonstrates ability to deliver projects</t>
   </si>
+  <si>
+    <t>Remove nested repo</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Git sync issue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1249,8 +1258,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1299,6 +1313,18 @@
         <bgColor rgb="FFC00000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1327,7 +1353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1358,9 +1384,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1379,12 +1402,27 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFEB9C"/>
+      <color rgb="FFC6EFCE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1684,7 +1722,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1699,100 +1737,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1801,27 +1839,27 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2099,24 +2137,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2151,14 +2189,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -2193,14 +2231,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -2235,14 +2273,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -2269,14 +2307,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -2329,7 +2367,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2346,18 +2384,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2409,8 +2447,8 @@
       <c r="C5" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>79</v>
+      <c r="D5" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>25</v>
@@ -2437,8 +2475,8 @@
       <c r="C6" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>79</v>
+      <c r="D6" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -2465,8 +2503,8 @@
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>79</v>
+      <c r="D7" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -2493,8 +2531,8 @@
       <c r="C8" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>79</v>
+      <c r="D8" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>25</v>
@@ -2521,8 +2559,8 @@
       <c r="C9" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>79</v>
+      <c r="D9" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>25</v>
@@ -2551,8 +2589,8 @@
       <c r="C10" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>79</v>
+      <c r="D10" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -2579,8 +2617,8 @@
       <c r="C11" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>79</v>
+      <c r="D11" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>25</v>
@@ -2607,8 +2645,8 @@
       <c r="C12" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>79</v>
+      <c r="D12" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>25</v>
@@ -2637,8 +2675,8 @@
       <c r="C13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>79</v>
+      <c r="D13" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>
@@ -2665,8 +2703,8 @@
       <c r="C14" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>79</v>
+      <c r="D14" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>25</v>
@@ -2693,8 +2731,8 @@
       <c r="C15" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>79</v>
+      <c r="D15" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>25</v>
@@ -2721,8 +2759,8 @@
       <c r="C16" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>79</v>
+      <c r="D16" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>25</v>
@@ -2749,8 +2787,8 @@
       <c r="C17" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>79</v>
+      <c r="D17" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
@@ -2777,8 +2815,8 @@
       <c r="C18" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>79</v>
+      <c r="D18" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>25</v>
@@ -2817,7 +2855,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2834,18 +2872,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2897,8 +2935,8 @@
       <c r="C5" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>79</v>
+      <c r="D5" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>25</v>
@@ -2925,8 +2963,8 @@
       <c r="C6" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>79</v>
+      <c r="D6" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -2953,8 +2991,8 @@
       <c r="C7" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>79</v>
+      <c r="D7" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -2981,10 +3019,10 @@
       <c r="C8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="12" t="s">
@@ -3016,7 +3054,7 @@
       <c r="D9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="24" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -3028,8 +3066,12 @@
       <c r="H9" s="11">
         <v>0</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -3518,24 +3560,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4170,24 +4212,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4822,24 +4864,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5446,24 +5488,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6095,17 +6137,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -6137,31 +6179,31 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6188,14 +6230,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">

--- a/docs/Project_Tracker.xlsx
+++ b/docs/Project_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potbelly-my.sharepoint.com/personal/anicia_clayton_potbelly_com/Documents/Desktop/linguallearn-portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{CE5F785D-15DF-442D-BF02-6C94E5833220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,12 +24,25 @@
     <sheet name="📝 Change Log" sheetId="9" r:id="rId9"/>
     <sheet name="📖 How to Use" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="388">
   <si>
     <t>LINGUALLEARN AI - PROJECT TRACKER</t>
   </si>
@@ -115,9 +128,6 @@
     <t>Week 1 Day 5</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>VPC, RDS, Security Groups deployed</t>
   </si>
   <si>
@@ -133,12 +143,6 @@
     <t>Week 2 Day 5</t>
   </si>
   <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>SSM connectivity issue</t>
-  </si>
-  <si>
     <t>Multi-Modal Tracking &amp; Video</t>
   </si>
   <si>
@@ -151,9 +155,6 @@
     <t>Week 3 Day 5</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>ML Integration &amp; AnkiDeck API</t>
   </si>
   <si>
@@ -187,33 +188,24 @@
     <t>Total Tasks:</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>Completed:</t>
   </si>
   <si>
-    <t>24 (20%)</t>
-  </si>
-  <si>
     <t>In Progress:</t>
   </si>
   <si>
-    <t>6 (5%)</t>
+    <t>1 (1%)</t>
   </si>
   <si>
     <t>Blocked:</t>
   </si>
   <si>
-    <t>1 (1%)</t>
+    <t>0 (0%)</t>
   </si>
   <si>
     <t>Not Started:</t>
   </si>
   <si>
-    <t>89 (74%)</t>
-  </si>
-  <si>
     <t>Current Week Hours:</t>
   </si>
   <si>
@@ -223,9 +215,6 @@
     <t>Total Hours Logged:</t>
   </si>
   <si>
-    <t>15 / 90</t>
-  </si>
-  <si>
     <t>Estimated Completion:</t>
   </si>
   <si>
@@ -268,7 +257,7 @@
     <t>AWS Account Setup &amp; Billing Alarms</t>
   </si>
   <si>
-    <t>You</t>
+    <t>AC</t>
   </si>
   <si>
     <t>High</t>
@@ -413,6 +402,12 @@
   </si>
   <si>
     <t>Create Database Schema (12+ tables)</t>
+  </si>
+  <si>
+    <t>Git sync issue</t>
+  </si>
+  <si>
+    <t>Remove nested repo</t>
   </si>
   <si>
     <t>P2-T006</t>
@@ -1028,6 +1023,22 @@
 5. Recreate EC2 if needed</t>
   </si>
   <si>
+    <t>B002</t>
+  </si>
+  <si>
+    <t>Git repository sync - nested repo conflict</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>1. Backed up terraform files
+2. Removed nested .git
+3. Moved terraform to root
+4. Resolved merge conflicts
+5. Force pushed</t>
+  </si>
+  <si>
     <t>PROJECT CHANGE LOG</t>
   </si>
   <si>
@@ -1043,15 +1054,147 @@
     <t>Change Type</t>
   </si>
   <si>
-    <t>2025-11-13</t>
-  </si>
-  <si>
     <t>Blocker Added</t>
   </si>
   <si>
     <t>SSM connectivity issue - requires VPC endpoints + SSM Agent installation</t>
   </si>
   <si>
+    <t>PROJECT TRACKER - USAGE INSTRUCTIONS</t>
+  </si>
+  <si>
+    <t>DAILY WORKFLOW</t>
+  </si>
+  <si>
+    <t>1. Update Task Status</t>
+  </si>
+  <si>
+    <t>Change status dropdown: Not Started → In Progress → Complete</t>
+  </si>
+  <si>
+    <t>2. Log Hours</t>
+  </si>
+  <si>
+    <t>Update 'Actual Hours' column as you work</t>
+  </si>
+  <si>
+    <t>3. Add Blockers</t>
+  </si>
+  <si>
+    <t>Document any blockers in 'Blocker' column</t>
+  </si>
+  <si>
+    <t>4. Add Notes</t>
+  </si>
+  <si>
+    <t>Capture learnings in 'Notes' column</t>
+  </si>
+  <si>
+    <t>WEEKLY WORKFLOW</t>
+  </si>
+  <si>
+    <t>1. Review Overview Tab</t>
+  </si>
+  <si>
+    <t>Check phase completion % and metrics</t>
+  </si>
+  <si>
+    <t>2. Update Blockers Sheet</t>
+  </si>
+  <si>
+    <t>Add new blockers, update status on existing</t>
+  </si>
+  <si>
+    <t>3. Add Change Log Entry</t>
+  </si>
+  <si>
+    <t>Document major changes or decisions</t>
+  </si>
+  <si>
+    <t>4. LinkedIn Update</t>
+  </si>
+  <si>
+    <t>Post weekly progress (use template in task)</t>
+  </si>
+  <si>
+    <t>AUTOMATION TIPS</t>
+  </si>
+  <si>
+    <t>Status Dropdowns</t>
+  </si>
+  <si>
+    <t>Click cells in Status column for dropdown</t>
+  </si>
+  <si>
+    <t>Priority Highlighting</t>
+  </si>
+  <si>
+    <t>High priority tasks are bold red</t>
+  </si>
+  <si>
+    <t>Color Coding</t>
+  </si>
+  <si>
+    <t>Green=Complete, Yellow=In Progress, Red=Blocked, Gray=Not Started</t>
+  </si>
+  <si>
+    <t>Filtering</t>
+  </si>
+  <si>
+    <t>Use Excel filters on header row to view specific statuses</t>
+  </si>
+  <si>
+    <t>GITHUB INTEGRATION</t>
+  </si>
+  <si>
+    <t>Link to GitHub</t>
+  </si>
+  <si>
+    <t>Use Task IDs in commit messages: 'git commit -m "Fix #P2-T004"'</t>
+  </si>
+  <si>
+    <t>Create GitHub Issues</t>
+  </si>
+  <si>
+    <t>Copy tasks to GitHub Projects for daily tracking</t>
+  </si>
+  <si>
+    <t>Sync Weekly</t>
+  </si>
+  <si>
+    <t>Update this tracker from GitHub once per week</t>
+  </si>
+  <si>
+    <t>INTERVIEW PREP</t>
+  </si>
+  <si>
+    <t>Completed Tasks</t>
+  </si>
+  <si>
+    <t>Use to talk about specific accomplishments</t>
+  </si>
+  <si>
+    <t>Blockers Resolved</t>
+  </si>
+  <si>
+    <t>Great stories for problem-solving questions</t>
+  </si>
+  <si>
+    <t>Hours Logged</t>
+  </si>
+  <si>
+    <t>Shows time management skills</t>
+  </si>
+  <si>
+    <t>Phase Completion</t>
+  </si>
+  <si>
+    <t>Demonstrates ability to deliver projects</t>
+  </si>
+  <si>
+    <t>SSM connectivity issue, Git sync issue</t>
+  </si>
+  <si>
     <t>Phase 1</t>
   </si>
   <si>
@@ -1061,152 +1204,23 @@
     <t>Infrastructure Foundation complete - 100%</t>
   </si>
   <si>
-    <t>PROJECT TRACKER - USAGE INSTRUCTIONS</t>
-  </si>
-  <si>
-    <t>DAILY WORKFLOW</t>
-  </si>
-  <si>
-    <t>1. Update Task Status</t>
-  </si>
-  <si>
-    <t>Change status dropdown: Not Started → In Progress → Complete</t>
-  </si>
-  <si>
-    <t>2. Log Hours</t>
-  </si>
-  <si>
-    <t>Update 'Actual Hours' column as you work</t>
-  </si>
-  <si>
-    <t>3. Add Blockers</t>
-  </si>
-  <si>
-    <t>Document any blockers in 'Blocker' column</t>
-  </si>
-  <si>
-    <t>4. Add Notes</t>
-  </si>
-  <si>
-    <t>Capture learnings in 'Notes' column</t>
-  </si>
-  <si>
-    <t>WEEKLY WORKFLOW</t>
-  </si>
-  <si>
-    <t>1. Review Overview Tab</t>
-  </si>
-  <si>
-    <t>Check phase completion % and metrics</t>
-  </si>
-  <si>
-    <t>2. Update Blockers Sheet</t>
-  </si>
-  <si>
-    <t>Add new blockers, update status on existing</t>
-  </si>
-  <si>
-    <t>3. Add Change Log Entry</t>
-  </si>
-  <si>
-    <t>Document major changes or decisions</t>
-  </si>
-  <si>
-    <t>4. LinkedIn Update</t>
-  </si>
-  <si>
-    <t>Post weekly progress (use template in task)</t>
-  </si>
-  <si>
-    <t>AUTOMATION TIPS</t>
-  </si>
-  <si>
-    <t>Status Dropdowns</t>
-  </si>
-  <si>
-    <t>Click cells in Status column for dropdown</t>
-  </si>
-  <si>
-    <t>Priority Highlighting</t>
-  </si>
-  <si>
-    <t>High priority tasks are bold red</t>
-  </si>
-  <si>
-    <t>Color Coding</t>
-  </si>
-  <si>
-    <t>Green=Complete, Yellow=In Progress, Red=Blocked, Gray=Not Started</t>
-  </si>
-  <si>
-    <t>Filtering</t>
-  </si>
-  <si>
-    <t>Use Excel filters on header row to view specific statuses</t>
-  </si>
-  <si>
-    <t>GITHUB INTEGRATION</t>
-  </si>
-  <si>
-    <t>Link to GitHub</t>
-  </si>
-  <si>
-    <t>Use Task IDs in commit messages: 'git commit -m "Fix #P2-T004"'</t>
-  </si>
-  <si>
-    <t>Create GitHub Issues</t>
-  </si>
-  <si>
-    <t>Copy tasks to GitHub Projects for daily tracking</t>
-  </si>
-  <si>
-    <t>Sync Weekly</t>
-  </si>
-  <si>
-    <t>Update this tracker from GitHub once per week</t>
-  </si>
-  <si>
-    <t>INTERVIEW PREP</t>
-  </si>
-  <si>
-    <t>Completed Tasks</t>
-  </si>
-  <si>
-    <t>Use to talk about specific accomplishments</t>
-  </si>
-  <si>
-    <t>Blockers Resolved</t>
-  </si>
-  <si>
-    <t>Great stories for problem-solving questions</t>
-  </si>
-  <si>
-    <t>Hours Logged</t>
-  </si>
-  <si>
-    <t>Shows time management skills</t>
-  </si>
-  <si>
-    <t>Phase Completion</t>
-  </si>
-  <si>
-    <t>Demonstrates ability to deliver projects</t>
-  </si>
-  <si>
-    <t>Remove nested repo</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>Git sync issue</t>
+    <t>20 (15%)</t>
+  </si>
+  <si>
+    <t>112 (85%)</t>
+  </si>
+  <si>
+    <t>20.5 / 90</t>
+  </si>
+  <si>
+    <t>Git sync issue- nested repo + restructured folders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1263,8 +1277,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1325,8 +1354,14 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1349,11 +1384,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1385,14 +1433,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1402,25 +1483,208 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2E3E5"/>
+          <bgColor rgb="FFE2E3E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8D7DA"/>
+          <bgColor rgb="FFF8D7DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF3CD"/>
+          <bgColor rgb="FFFFF3CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6E5DA"/>
+          <bgColor rgb="FFC6E5DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2E3E5"/>
+          <bgColor rgb="FFE2E3E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8D7DA"/>
+          <bgColor rgb="FFF8D7DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF3CD"/>
+          <bgColor rgb="FFFFF3CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6E5DA"/>
+          <bgColor rgb="FFC6E5DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2E3E5"/>
+          <bgColor rgb="FFE2E3E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8D7DA"/>
+          <bgColor rgb="FFF8D7DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF3CD"/>
+          <bgColor rgb="FFFFF3CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6E5DA"/>
+          <bgColor rgb="FFC6E5DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2E3E5"/>
+          <bgColor rgb="FFE2E3E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8D7DA"/>
+          <bgColor rgb="FFF8D7DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF3CD"/>
+          <bgColor rgb="FFFFF3CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6E5DA"/>
+          <bgColor rgb="FFC6E5DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2E3E5"/>
+          <bgColor rgb="FFE2E3E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8D7DA"/>
+          <bgColor rgb="FFF8D7DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF3CD"/>
+          <bgColor rgb="FFFFF3CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6E5DA"/>
+          <bgColor rgb="FFC6E5DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2E3E5"/>
+          <bgColor rgb="FFE2E3E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8D7DA"/>
+          <bgColor rgb="FFF8D7DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF3CD"/>
+          <bgColor rgb="FFFFF3CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6E5DA"/>
+          <bgColor rgb="FFC6E5DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFEB9C"/>
-      <color rgb="FFC6EFCE"/>
+      <color rgb="FFFFC7CE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1721,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1737,100 +2001,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1839,29 +2103,29 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1903,14 +2167,16 @@
       <c r="E15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="18">
+        <f>IFERROR(COUNTIF('Phase 1 - Infrastructure'!E5:E100,"Complete")/COUNTA('Phase 1 - Infrastructure'!A5:A100),0)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <f>COUNTIF('Phase 1 - Infrastructure'!E:E,"Blocked")</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1918,25 +2184,27 @@
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>34</v>
+      <c r="F16" s="18">
+        <f>IFERROR(COUNTIF('Phase 2 - API &amp; Compute'!E5:E100,"Complete")/COUNTA('Phase 2 - API &amp; Compute'!A5:A100),0)</f>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G16" s="4">
-        <v>1</v>
+        <f>COUNTIF('Phase 2 - API &amp; Compute'!E:E,"Blocked")</f>
+        <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>35</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1944,21 +2212,23 @@
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>40</v>
+      <c r="F17" s="18">
+        <f>IFERROR(COUNTIF('Phase 3 - Multi-Modal'!E5:E100,"Complete")/COUNTA('Phase 3 - Multi-Modal'!A5:A100),0)</f>
+        <v>0</v>
       </c>
       <c r="G17" s="4">
+        <f>COUNTIF('Phase 3 - Multi-Modal'!E:E,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="H17" s="4"/>
@@ -1968,21 +2238,23 @@
         <v>4</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="F18" s="18">
+        <f>IFERROR(COUNTIF('Phase 4 - ML Integration'!E5:E100,"Complete")/COUNTA('Phase 4 - ML Integration'!A5:A100),0)</f>
+        <v>0</v>
       </c>
       <c r="G18" s="4">
+        <f>COUNTIF('Phase 4 - ML Integration'!E:E,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="H18" s="4"/>
@@ -1992,21 +2264,23 @@
         <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="F19" s="18">
+        <f>IFERROR(COUNTIF('Phase 5 - Monitoring'!E5:E100,"Complete")/COUNTA('Phase 5 - Monitoring'!A5:A100),0)</f>
+        <v>0</v>
       </c>
       <c r="G19" s="4">
+        <f>COUNTIF('Phase 5 - Monitoring'!E:E,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="H19" s="4"/>
@@ -2016,68 +2290,71 @@
         <v>6</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="F20" s="18">
+        <f>IFERROR(COUNTIF('Phase 6 - CICD'!E5:E100,"Complete")/COUNTA('Phase 6 - CICD'!A5:A100),0)</f>
+        <v>0</v>
       </c>
       <c r="G20" s="4">
+        <f>COUNTIF('Phase 6 - CICD'!E:E,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <f>COUNTA('Phase 1 - Infrastructure'!A:A)+COUNTA('Phase 2 - API &amp; Compute'!A:A)+COUNTA('Phase 3 - Multi-Modal'!A:A)+COUNTA('Phase 4 - ML Integration'!A:A)+COUNTA('Phase 5 - Monitoring'!A:A)+COUNTA('Phase 6 - CICD'!A:A)</f>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2085,39 +2362,39 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B10:H10"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2127,7 +2404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2137,215 +2416,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="A1" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B17" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B18" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B19" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B23" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B24" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B25" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B28" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B29" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B30" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B31" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -2367,7 +2646,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2384,22 +2663,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="A1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>25</v>
@@ -2407,31 +2686,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>23</v>
@@ -2439,22 +2718,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>387</v>
+        <v>70</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G5" s="11">
         <v>0.5</v>
@@ -2467,22 +2746,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>387</v>
+        <v>74</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G6" s="11">
         <v>0.5</v>
@@ -2495,22 +2774,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>387</v>
+        <v>76</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G7" s="11">
         <v>0.5</v>
@@ -2523,22 +2802,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>387</v>
+        <v>78</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -2551,22 +2830,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>387</v>
+        <v>81</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G9" s="11">
         <v>2</v>
@@ -2576,27 +2855,27 @@
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>387</v>
+        <v>84</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
@@ -2609,22 +2888,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>387</v>
+        <v>86</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G11" s="11">
         <v>0.5</v>
@@ -2637,22 +2916,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>387</v>
+        <v>89</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G12" s="11">
         <v>2</v>
@@ -2662,27 +2941,27 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>387</v>
+        <v>93</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G13" s="11">
         <v>1.5</v>
@@ -2695,22 +2974,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>387</v>
+        <v>95</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G14" s="11">
         <v>0.5</v>
@@ -2723,22 +3002,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>387</v>
+        <v>98</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G15" s="11">
         <v>1</v>
@@ -2751,22 +3030,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>387</v>
+        <v>101</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G16" s="11">
         <v>0.5</v>
@@ -2779,22 +3058,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>387</v>
+        <v>103</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G17" s="11">
         <v>2</v>
@@ -2807,22 +3086,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>387</v>
+      <c r="D18" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G18" s="11">
         <v>0.5</v>
@@ -2837,6 +3116,20 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="E5:E100">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" errorTitle="Invalid Entry" error="Invalid status" sqref="E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Not Started,In Progress,Complete,Blocked"</formula1>
@@ -2855,7 +3148,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2872,54 +3165,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="A1" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>23</v>
@@ -2927,22 +3220,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>387</v>
+        <v>109</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
@@ -2955,22 +3248,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>387</v>
+        <v>111</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G6" s="11">
         <v>0.5</v>
@@ -2983,22 +3276,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>387</v>
+        <v>113</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G7" s="11">
         <v>0.5</v>
@@ -3011,22 +3304,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="E8" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -3035,90 +3328,90 @@
         <v>2</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>31</v>
+        <v>71</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G9" s="11">
         <v>1.5</v>
       </c>
       <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>386</v>
+        <v>2</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
       </c>
       <c r="H10" s="11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
@@ -3131,22 +3424,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
@@ -3159,22 +3452,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G13" s="11">
         <v>0.5</v>
@@ -3187,22 +3480,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G14" s="11">
         <v>2</v>
@@ -3215,22 +3508,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G15" s="11">
         <v>2</v>
@@ -3243,22 +3536,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
@@ -3271,22 +3564,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G17" s="11">
         <v>1.5</v>
@@ -3299,22 +3592,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
@@ -3327,22 +3620,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
@@ -3355,22 +3648,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G20" s="11">
         <v>0.5</v>
@@ -3383,22 +3676,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G21" s="11">
         <v>1.5</v>
@@ -3411,22 +3704,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
@@ -3439,22 +3732,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G23" s="11">
         <v>1.5</v>
@@ -3467,22 +3760,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
@@ -3495,22 +3788,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G25" s="11">
         <v>0.5</v>
@@ -3525,6 +3818,20 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="E5:E100">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" errorTitle="Invalid Entry" error="Invalid status" sqref="E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Not Started,In Progress,Complete,Blocked"</formula1>
@@ -3560,54 +3867,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="A1" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>23</v>
@@ -3615,22 +3922,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
@@ -3643,22 +3950,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G6" s="11">
         <v>0.5</v>
@@ -3671,22 +3978,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -3699,22 +4006,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G8" s="11">
         <v>1.5</v>
@@ -3727,22 +4034,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
@@ -3755,22 +4062,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G10" s="11">
         <v>2</v>
@@ -3783,22 +4090,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G11" s="11">
         <v>1.5</v>
@@ -3811,22 +4118,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G12" s="11">
         <v>0.5</v>
@@ -3839,22 +4146,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G13" s="11">
         <v>1</v>
@@ -3867,22 +4174,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G14" s="11">
         <v>2</v>
@@ -3895,22 +4202,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G15" s="11">
         <v>1</v>
@@ -3923,22 +4230,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
@@ -3951,22 +4258,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G17" s="11">
         <v>2</v>
@@ -3979,22 +4286,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
@@ -4007,22 +4314,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G19" s="11">
         <v>1.5</v>
@@ -4035,22 +4342,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
@@ -4063,22 +4370,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G21" s="11">
         <v>0.5</v>
@@ -4091,22 +4398,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
@@ -4119,22 +4426,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G23" s="11">
         <v>1.5</v>
@@ -4147,22 +4454,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G24" s="11">
         <v>0.5</v>
@@ -4177,6 +4484,20 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="E5:E100">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" errorTitle="Invalid Entry" error="Invalid status" sqref="E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Not Started,In Progress,Complete,Blocked"</formula1>
@@ -4195,7 +4516,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4212,54 +4533,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="A1" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>23</v>
@@ -4267,22 +4588,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G5" s="11">
         <v>2</v>
@@ -4295,22 +4616,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G6" s="11">
         <v>1.5</v>
@@ -4323,22 +4644,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G7" s="11">
         <v>0.5</v>
@@ -4351,22 +4672,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G8" s="11">
         <v>0.5</v>
@@ -4379,22 +4700,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G9" s="11">
         <v>2</v>
@@ -4407,22 +4728,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G10" s="11">
         <v>1.5</v>
@@ -4435,22 +4756,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G11" s="11">
         <v>0.5</v>
@@ -4463,22 +4784,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
@@ -4491,22 +4812,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G13" s="11">
         <v>2</v>
@@ -4519,22 +4840,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
@@ -4547,22 +4868,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G15" s="11">
         <v>1</v>
@@ -4575,22 +4896,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
@@ -4603,22 +4924,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G17" s="11">
         <v>2</v>
@@ -4631,22 +4952,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G18" s="11">
         <v>1.5</v>
@@ -4659,22 +4980,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
@@ -4687,22 +5008,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G20" s="11">
         <v>1.5</v>
@@ -4715,22 +5036,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G21" s="11">
         <v>1</v>
@@ -4743,22 +5064,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
@@ -4771,22 +5092,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G23" s="11">
         <v>1.5</v>
@@ -4799,22 +5120,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G24" s="11">
         <v>0.5</v>
@@ -4829,6 +5150,20 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="E5:E100">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" errorTitle="Invalid Entry" error="Invalid status" sqref="E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Not Started,In Progress,Complete,Blocked"</formula1>
@@ -4847,7 +5182,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4864,54 +5199,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="A1" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>23</v>
@@ -4919,22 +5254,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G5" s="11">
         <v>2</v>
@@ -4947,22 +5282,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G6" s="11">
         <v>1.5</v>
@@ -4975,22 +5310,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G7" s="11">
         <v>0.5</v>
@@ -5003,22 +5338,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -5031,22 +5366,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G9" s="11">
         <v>3</v>
@@ -5059,22 +5394,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G10" s="11">
         <v>2</v>
@@ -5087,22 +5422,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G11" s="11">
         <v>0.5</v>
@@ -5115,22 +5450,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G12" s="11">
         <v>1.5</v>
@@ -5143,22 +5478,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G13" s="11">
         <v>2</v>
@@ -5171,22 +5506,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
@@ -5199,22 +5534,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G15" s="11">
         <v>1</v>
@@ -5227,22 +5562,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
@@ -5255,22 +5590,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G17" s="11">
         <v>1</v>
@@ -5283,22 +5618,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G18" s="11">
         <v>0.5</v>
@@ -5311,22 +5646,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
@@ -5339,22 +5674,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G20" s="11">
         <v>2</v>
@@ -5367,22 +5702,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G21" s="11">
         <v>1.5</v>
@@ -5395,22 +5730,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G22" s="11">
         <v>1.5</v>
@@ -5423,22 +5758,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G23" s="11">
         <v>0.5</v>
@@ -5453,6 +5788,20 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="E5:E100">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" errorTitle="Invalid Entry" error="Invalid status" sqref="E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Not Started,In Progress,Complete,Blocked"</formula1>
@@ -5471,7 +5820,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5488,54 +5837,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="A1" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>23</v>
@@ -5543,22 +5892,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G5" s="11">
         <v>2</v>
@@ -5571,22 +5920,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G6" s="11">
         <v>1.5</v>
@@ -5599,22 +5948,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G7" s="11">
         <v>0.5</v>
@@ -5627,22 +5976,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -5655,22 +6004,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G9" s="11">
         <v>2</v>
@@ -5683,22 +6032,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G10" s="11">
         <v>2</v>
@@ -5711,22 +6060,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G11" s="11">
         <v>1.5</v>
@@ -5739,22 +6088,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
@@ -5767,22 +6116,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G13" s="11">
         <v>2</v>
@@ -5795,22 +6144,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
@@ -5823,22 +6172,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G15" s="11">
         <v>0.5</v>
@@ -5851,22 +6200,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G16" s="11">
         <v>1.5</v>
@@ -5879,22 +6228,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G17" s="11">
         <v>1.5</v>
@@ -5907,22 +6256,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
@@ -5935,22 +6284,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
@@ -5963,22 +6312,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G20" s="11">
         <v>2</v>
@@ -5991,22 +6340,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G21" s="11">
         <v>1.5</v>
@@ -6019,22 +6368,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
@@ -6047,22 +6396,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G23" s="11">
         <v>0.5</v>
@@ -6075,22 +6424,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
@@ -6105,6 +6454,20 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="E5:E100">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" errorTitle="Invalid Entry" error="Invalid status" sqref="E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Not Started,In Progress,Complete,Blocked"</formula1>
@@ -6119,9 +6482,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6137,87 +6502,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="A1" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="I4" s="21">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="22" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="B5" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="E5" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="G5" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="I4" s="15"/>
+      <c r="I5" s="24">
+        <v>45975</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6230,73 +6629,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="A1" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>80</v>
+      <c r="A4" s="26">
+        <v>45967</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>27</v>
+      <c r="A5" s="27">
+        <v>45974</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>114</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
+        <v>45975</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Project_Tracker.xlsx
+++ b/docs/Project_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potbelly-my.sharepoint.com/personal/anicia_clayton_potbelly_com/Documents/Desktop/linguallearn-portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9127442-2913-40DC-8B94-276E6D9B79DE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="📊 Project Overview" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Project Type:</t>
   </si>
   <si>
-    <t>Portfolio / AI Engineer Capstone</t>
-  </si>
-  <si>
     <t>Duration:</t>
   </si>
   <si>
@@ -1204,16 +1201,19 @@
     <t>Infrastructure Foundation complete - 100%</t>
   </si>
   <si>
-    <t>20 (15%)</t>
-  </si>
-  <si>
-    <t>112 (85%)</t>
-  </si>
-  <si>
-    <t>20.5 / 90</t>
-  </si>
-  <si>
     <t>Git sync issue- nested repo + restructured folders</t>
+  </si>
+  <si>
+    <t>AI Engineer Portfolio</t>
+  </si>
+  <si>
+    <t>26 (20%)</t>
+  </si>
+  <si>
+    <t>106 (80%)</t>
+  </si>
+  <si>
+    <t>27.5 / 90</t>
   </si>
 </sst>
 </file>
@@ -1985,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2031,7 +2031,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>4</v>
+        <v>384</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -2042,10 +2042,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -2056,10 +2056,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>8</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>10</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -2084,10 +2084,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>12</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -2101,10 +2101,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>14</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="13" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -2127,28 +2127,28 @@
     </row>
     <row r="14" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2156,16 +2156,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F15" s="18">
         <f>IFERROR(COUNTIF('Phase 1 - Infrastructure'!E5:E100,"Complete")/COUNTA('Phase 1 - Infrastructure'!A5:A100),0)</f>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2184,27 +2184,27 @@
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="F16" s="18">
         <f>IFERROR(COUNTIF('Phase 2 - API &amp; Compute'!E5:E100,"Complete")/COUNTA('Phase 2 - API &amp; Compute'!A5:A100),0)</f>
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G16" s="4">
         <f>COUNTIF('Phase 2 - API &amp; Compute'!E:E,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2212,16 +2212,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="F17" s="18">
         <f>IFERROR(COUNTIF('Phase 3 - Multi-Modal'!E5:E100,"Complete")/COUNTA('Phase 3 - Multi-Modal'!A5:A100),0)</f>
@@ -2238,16 +2238,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="F18" s="18">
         <f>IFERROR(COUNTIF('Phase 4 - ML Integration'!E5:E100,"Complete")/COUNTA('Phase 4 - ML Integration'!A5:A100),0)</f>
@@ -2264,16 +2264,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="F19" s="18">
         <f>IFERROR(COUNTIF('Phase 5 - Monitoring'!E5:E100,"Complete")/COUNTA('Phase 5 - Monitoring'!A5:A100),0)</f>
@@ -2290,16 +2290,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="F20" s="18">
         <f>IFERROR(COUNTIF('Phase 6 - CICD'!E5:E100,"Complete")/COUNTA('Phase 6 - CICD'!A5:A100),0)</f>
@@ -2313,12 +2313,12 @@
     </row>
     <row r="23" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <f>COUNTA('Phase 1 - Infrastructure'!A:A)+COUNTA('Phase 2 - API &amp; Compute'!A:A)+COUNTA('Phase 3 - Multi-Modal'!A:A)+COUNTA('Phase 4 - ML Integration'!A:A)+COUNTA('Phase 5 - Monitoring'!A:A)+COUNTA('Phase 6 - CICD'!A:A)</f>
@@ -2327,34 +2327,34 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2362,26 +2362,26 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
         <v>54</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2417,7 +2417,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -2437,39 +2437,39 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" t="s">
         <v>338</v>
-      </c>
-      <c r="B5" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" t="s">
         <v>340</v>
-      </c>
-      <c r="B6" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" t="s">
         <v>342</v>
-      </c>
-      <c r="B7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" t="s">
         <v>344</v>
-      </c>
-      <c r="B8" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -2479,39 +2479,39 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" t="s">
         <v>347</v>
-      </c>
-      <c r="B11" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" t="s">
         <v>349</v>
-      </c>
-      <c r="B12" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" t="s">
         <v>351</v>
-      </c>
-      <c r="B13" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" t="s">
         <v>353</v>
-      </c>
-      <c r="B14" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -2521,39 +2521,39 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B17" t="s">
         <v>356</v>
-      </c>
-      <c r="B17" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" t="s">
         <v>358</v>
-      </c>
-      <c r="B18" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" t="s">
         <v>360</v>
-      </c>
-      <c r="B19" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B20" t="s">
         <v>362</v>
-      </c>
-      <c r="B20" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -2563,31 +2563,31 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B23" t="s">
         <v>365</v>
-      </c>
-      <c r="B23" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" t="s">
         <v>367</v>
-      </c>
-      <c r="B24" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" t="s">
         <v>369</v>
-      </c>
-      <c r="B25" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
@@ -2597,34 +2597,34 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B28" t="s">
         <v>372</v>
-      </c>
-      <c r="B28" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B29" t="s">
         <v>374</v>
-      </c>
-      <c r="B29" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B30" t="s">
         <v>376</v>
-      </c>
-      <c r="B30" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B31" t="s">
         <v>378</v>
-      </c>
-      <c r="B31" t="s">
-        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -2664,7 +2664,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2678,62 +2678,62 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="D5" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="11">
         <v>0.5</v>
@@ -2746,22 +2746,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="D6" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="11">
         <v>0.5</v>
@@ -2774,22 +2774,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="D7" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="11">
         <v>0.5</v>
@@ -2802,22 +2802,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="D8" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -2830,22 +2830,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="D9" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="11">
         <v>2</v>
@@ -2855,27 +2855,27 @@
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>84</v>
-      </c>
       <c r="D10" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
@@ -2888,22 +2888,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="11">
         <v>0.5</v>
@@ -2916,22 +2916,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>89</v>
-      </c>
       <c r="D12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="11">
         <v>2</v>
@@ -2941,27 +2941,27 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="D13" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="11">
         <v>1.5</v>
@@ -2974,22 +2974,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>95</v>
-      </c>
       <c r="D14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="11">
         <v>0.5</v>
@@ -3002,22 +3002,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="G15" s="11">
         <v>1</v>
@@ -3030,22 +3030,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="D16" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" s="11">
         <v>0.5</v>
@@ -3058,22 +3058,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>103</v>
-      </c>
       <c r="D17" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="11">
         <v>2</v>
@@ -3086,22 +3086,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="G18" s="11">
         <v>0.5</v>
@@ -3146,9 +3146,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3166,7 +3166,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -3180,62 +3180,62 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="D5" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
@@ -3248,22 +3248,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>111</v>
-      </c>
       <c r="D6" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="11">
         <v>0.5</v>
@@ -3276,22 +3276,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="D7" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="11">
         <v>0.5</v>
@@ -3304,22 +3304,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="D8" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -3328,30 +3328,30 @@
         <v>2</v>
       </c>
       <c r="I8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="11">
         <v>1.5</v>
@@ -3360,30 +3360,30 @@
         <v>2</v>
       </c>
       <c r="I9" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
@@ -3396,190 +3396,190 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
       </c>
       <c r="H11" s="11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
       </c>
       <c r="H12" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="11">
         <v>0.5</v>
       </c>
       <c r="H13" s="11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>131</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="11">
         <v>2</v>
       </c>
       <c r="H14" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>133</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="11">
         <v>2</v>
       </c>
       <c r="H15" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
       </c>
       <c r="H16" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>137</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="11">
         <v>1.5</v>
@@ -3592,22 +3592,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>139</v>
-      </c>
       <c r="D18" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
@@ -3620,22 +3620,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>141</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
@@ -3648,22 +3648,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>143</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="11">
         <v>0.5</v>
@@ -3676,22 +3676,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="11">
         <v>1.5</v>
@@ -3704,22 +3704,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>147</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
@@ -3732,22 +3732,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>149</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="11">
         <v>1.5</v>
@@ -3760,22 +3760,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>151</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
@@ -3788,22 +3788,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="D25" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G25" s="11">
         <v>0.5</v>
@@ -3868,7 +3868,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -3882,62 +3882,62 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>156</v>
-      </c>
       <c r="D5" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
@@ -3950,22 +3950,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="11">
         <v>0.5</v>
@@ -3978,22 +3978,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>160</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -4006,22 +4006,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="11">
         <v>1.5</v>
@@ -4034,22 +4034,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>164</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
@@ -4062,22 +4062,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>166</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="11">
         <v>2</v>
@@ -4090,22 +4090,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>168</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="11">
         <v>1.5</v>
@@ -4118,22 +4118,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>170</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="11">
         <v>0.5</v>
@@ -4146,22 +4146,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>172</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="11">
         <v>1</v>
@@ -4174,22 +4174,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>174</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="11">
         <v>2</v>
@@ -4202,22 +4202,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>176</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="11">
         <v>1</v>
@@ -4230,22 +4230,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>178</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
@@ -4258,22 +4258,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>180</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="11">
         <v>2</v>
@@ -4286,22 +4286,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>182</v>
-      </c>
       <c r="D18" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
@@ -4314,22 +4314,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>184</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19" s="11">
         <v>1.5</v>
@@ -4342,22 +4342,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>186</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
@@ -4370,22 +4370,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G21" s="11">
         <v>0.5</v>
@@ -4398,22 +4398,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
@@ -4426,22 +4426,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="11">
         <v>1.5</v>
@@ -4454,22 +4454,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G24" s="11">
         <v>0.5</v>
@@ -4534,7 +4534,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -4548,62 +4548,62 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="D5" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="11">
         <v>2</v>
@@ -4616,22 +4616,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>199</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="11">
         <v>1.5</v>
@@ -4644,22 +4644,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>201</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="11">
         <v>0.5</v>
@@ -4672,22 +4672,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>203</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="11">
         <v>0.5</v>
@@ -4700,22 +4700,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>205</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="11">
         <v>2</v>
@@ -4728,22 +4728,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>207</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="11">
         <v>1.5</v>
@@ -4756,22 +4756,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>209</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="11">
         <v>0.5</v>
@@ -4784,22 +4784,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>211</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
@@ -4812,22 +4812,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>213</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="11">
         <v>2</v>
@@ -4840,22 +4840,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>215</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
@@ -4868,22 +4868,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>217</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="11">
         <v>1</v>
@@ -4896,22 +4896,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>219</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
@@ -4924,22 +4924,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>221</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="11">
         <v>2</v>
@@ -4952,22 +4952,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>223</v>
-      </c>
       <c r="D18" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="11">
         <v>1.5</v>
@@ -4980,22 +4980,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>225</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
@@ -5008,22 +5008,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>227</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="11">
         <v>1.5</v>
@@ -5036,22 +5036,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>229</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="11">
         <v>1</v>
@@ -5064,22 +5064,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>231</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
@@ -5092,22 +5092,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="11">
         <v>1.5</v>
@@ -5120,22 +5120,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>235</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G24" s="11">
         <v>0.5</v>
@@ -5200,7 +5200,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -5214,62 +5214,62 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="D5" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="11">
         <v>2</v>
@@ -5282,22 +5282,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>240</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="11">
         <v>1.5</v>
@@ -5310,22 +5310,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>242</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="11">
         <v>0.5</v>
@@ -5338,22 +5338,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>244</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -5366,22 +5366,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>246</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="11">
         <v>3</v>
@@ -5394,22 +5394,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>248</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="11">
         <v>2</v>
@@ -5422,22 +5422,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>250</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" s="11">
         <v>0.5</v>
@@ -5450,22 +5450,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>252</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="11">
         <v>1.5</v>
@@ -5478,22 +5478,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>254</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="11">
         <v>2</v>
@@ -5506,22 +5506,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>256</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
@@ -5534,22 +5534,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>258</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="11">
         <v>1</v>
@@ -5562,22 +5562,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>260</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
@@ -5590,22 +5590,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>262</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="11">
         <v>1</v>
@@ -5618,22 +5618,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>264</v>
-      </c>
       <c r="D18" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="11">
         <v>0.5</v>
@@ -5646,22 +5646,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>266</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
@@ -5674,22 +5674,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>268</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="11">
         <v>2</v>
@@ -5702,22 +5702,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>270</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="11">
         <v>1.5</v>
@@ -5730,22 +5730,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>272</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="11">
         <v>1.5</v>
@@ -5758,22 +5758,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>274</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" s="11">
         <v>0.5</v>
@@ -5838,7 +5838,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -5852,62 +5852,62 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>277</v>
-      </c>
       <c r="D5" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="11">
         <v>2</v>
@@ -5920,22 +5920,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>279</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="11">
         <v>1.5</v>
@@ -5948,22 +5948,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>281</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="11">
         <v>0.5</v>
@@ -5976,22 +5976,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>283</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -6004,22 +6004,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>285</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="11">
         <v>2</v>
@@ -6032,22 +6032,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>287</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="11">
         <v>2</v>
@@ -6060,22 +6060,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>289</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="11">
         <v>1.5</v>
@@ -6088,22 +6088,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>291</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
@@ -6116,22 +6116,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>293</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="11">
         <v>2</v>
@@ -6144,22 +6144,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>295</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
@@ -6172,22 +6172,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>297</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="11">
         <v>0.5</v>
@@ -6200,22 +6200,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>299</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" s="11">
         <v>1.5</v>
@@ -6228,22 +6228,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>301</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="11">
         <v>1.5</v>
@@ -6256,22 +6256,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>303</v>
-      </c>
       <c r="D18" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
@@ -6284,22 +6284,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>305</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
@@ -6312,22 +6312,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>307</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="11">
         <v>2</v>
@@ -6340,22 +6340,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>309</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="11">
         <v>1.5</v>
@@ -6368,22 +6368,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>311</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
@@ -6396,22 +6396,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>313</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="11">
         <v>0.5</v>
@@ -6424,22 +6424,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>315</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
@@ -6503,7 +6503,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -6516,57 +6516,57 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>323</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>324</v>
       </c>
       <c r="I4" s="21">
         <v>45974</v>
@@ -6574,28 +6574,28 @@
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="E5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="G5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>327</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>328</v>
       </c>
       <c r="I5" s="24">
         <v>45975</v>
@@ -6630,7 +6630,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -6640,22 +6640,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6663,19 +6663,19 @@
         <v>45967</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>383</v>
-      </c>
       <c r="F4" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6683,19 +6683,19 @@
         <v>45974</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>335</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6703,19 +6703,19 @@
         <v>45975</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Project_Tracker.xlsx
+++ b/docs/Project_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potbelly-my.sharepoint.com/personal/anicia_clayton_potbelly_com/Documents/Desktop/linguallearn-portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9127442-2913-40DC-8B94-276E6D9B79DE}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D277315-3308-49CD-B492-07CD0111A158}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,13 +1207,13 @@
     <t>AI Engineer Portfolio</t>
   </si>
   <si>
-    <t>26 (20%)</t>
-  </si>
-  <si>
-    <t>106 (80%)</t>
-  </si>
-  <si>
-    <t>27.5 / 90</t>
+    <t>30 / 90</t>
+  </si>
+  <si>
+    <t>30 (26%)</t>
+  </si>
+  <si>
+    <t>102 (77%)</t>
   </si>
 </sst>
 </file>
@@ -1698,6 +1698,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1986,7 +1990,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2197,7 +2201,7 @@
       </c>
       <c r="F16" s="18">
         <f>IFERROR(COUNTIF('Phase 2 - API &amp; Compute'!E5:E100,"Complete")/COUNTA('Phase 2 - API &amp; Compute'!A5:A100),0)</f>
-        <v>0.5714285714285714</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="G16" s="4">
         <f>COUNTIF('Phase 2 - API &amp; Compute'!E:E,"Blocked")</f>
@@ -2330,7 +2334,7 @@
         <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2354,7 +2358,7 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2373,7 +2377,7 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -3148,7 +3152,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3576,7 +3580,7 @@
         <v>70</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>71</v>
@@ -3585,7 +3589,7 @@
         <v>1.5</v>
       </c>
       <c r="H17" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -3604,7 +3608,7 @@
         <v>70</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>71</v>
@@ -3613,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -3632,7 +3636,7 @@
         <v>70</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>71</v>
@@ -3641,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -3660,7 +3664,7 @@
         <v>70</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>98</v>
@@ -3669,7 +3673,7 @@
         <v>0.5</v>
       </c>
       <c r="H20" s="11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -3688,7 +3692,7 @@
         <v>70</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>71</v>

--- a/docs/Project_Tracker.xlsx
+++ b/docs/Project_Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potbelly-my.sharepoint.com/personal/anicia_clayton_potbelly_com/Documents/Desktop/linguallearn-portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAE68A4D-9389-4AFB-93A9-FD2E9A7D67D0}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA72ED7A-F606-4C9B-90A7-8B817274B6C2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1198,15 +1198,6 @@
     <t>In progress</t>
   </si>
   <si>
-    <t>40 / 120</t>
-  </si>
-  <si>
-    <t>35 (27%)</t>
-  </si>
-  <si>
-    <t>97 (73%)</t>
-  </si>
-  <si>
     <t>Phase 3 - Multi-Modal Layer</t>
   </si>
   <si>
@@ -1217,6 +1208,15 @@
   </si>
   <si>
     <t>7 Weeks (90-120 hours total)</t>
+  </si>
+  <si>
+    <t>45 / 120</t>
+  </si>
+  <si>
+    <t>39 (30%)</t>
+  </si>
+  <si>
+    <t>93 (70%)</t>
   </si>
 </sst>
 </file>
@@ -1471,6 +1471,11 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1482,11 +1487,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1995,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2011,100 +2011,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="B5" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="B7" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="B8" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2113,27 +2113,27 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="B10" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2196,7 +2196,7 @@
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="F17" s="16">
         <f>IFERROR(COUNTIF('Phase 3 - Multi-Modal'!E5:E100,"Complete")/COUNTA('Phase 3 - Multi-Modal'!A5:A100),0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G17" s="4">
         <f>COUNTIF('Phase 3 - Multi-Modal'!E:E,"Blocked")</f>
@@ -2340,7 +2340,7 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2364,7 +2364,7 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2383,7 +2383,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2426,24 +2426,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2478,14 +2478,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -2520,14 +2520,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -2562,14 +2562,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -2596,14 +2596,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -2673,18 +2673,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3175,24 +3175,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3860,7 +3860,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3877,24 +3877,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="28" t="s">
         <v>381</v>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
         <v>66</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>67</v>
@@ -3953,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -3972,7 +3972,7 @@
         <v>66</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>67</v>
@@ -3981,7 +3981,7 @@
         <v>0.5</v>
       </c>
       <c r="H6" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -4000,7 +4000,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>67</v>
@@ -4028,7 +4028,7 @@
         <v>66</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>67</v>
@@ -4037,7 +4037,7 @@
         <v>1.5</v>
       </c>
       <c r="H8" s="10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -4056,7 +4056,7 @@
         <v>66</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
@@ -4065,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -4084,7 +4084,7 @@
         <v>66</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>67</v>
@@ -4543,18 +4543,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -5209,18 +5209,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -5847,18 +5847,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6512,17 +6512,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -6639,14 +6639,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">

--- a/docs/Project_Tracker.xlsx
+++ b/docs/Project_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potbelly-my.sharepoint.com/personal/anicia_clayton_potbelly_com/Documents/Desktop/linguallearn-portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA72ED7A-F606-4C9B-90A7-8B817274B6C2}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EC2CE71-16DC-497E-97AA-FF46821CF4EA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="400">
   <si>
     <t>LINGUALLEARN AI - PROJECT TRACKER</t>
   </si>
@@ -1210,13 +1210,46 @@
     <t>7 Weeks (90-120 hours total)</t>
   </si>
   <si>
-    <t>45 / 120</t>
-  </si>
-  <si>
-    <t>39 (30%)</t>
-  </si>
-  <si>
-    <t>93 (70%)</t>
+    <t>Later enhancement</t>
+  </si>
+  <si>
+    <t>Create Lambda Handler for Video Metadata</t>
+  </si>
+  <si>
+    <t>Create Lambda Infrastructure in Terraform</t>
+  </si>
+  <si>
+    <t>Package and Deploy Lambda Function</t>
+  </si>
+  <si>
+    <t>Test Lambda with S3 Upload</t>
+  </si>
+  <si>
+    <t>Verify S3 Event Triggers</t>
+  </si>
+  <si>
+    <t>P3-T021</t>
+  </si>
+  <si>
+    <t>P3-T022</t>
+  </si>
+  <si>
+    <t>P3-T023</t>
+  </si>
+  <si>
+    <t>P3-T024</t>
+  </si>
+  <si>
+    <t>P3-T025</t>
+  </si>
+  <si>
+    <t>54.5 / 120</t>
+  </si>
+  <si>
+    <t>49 (36%)</t>
+  </si>
+  <si>
+    <t>84 (61%)</t>
   </si>
 </sst>
 </file>
@@ -1996,7 +2029,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2234,8 +2267,8 @@
         <v>31</v>
       </c>
       <c r="F17" s="16">
-        <f>IFERROR(COUNTIF('Phase 3 - Multi-Modal'!E5:E100,"Complete")/COUNTA('Phase 3 - Multi-Modal'!A5:A100),0)</f>
-        <v>0.2</v>
+        <f>IFERROR(COUNTIF('Phase 3 - Multi-Modal'!E5:E105,"Complete")/COUNTA('Phase 3 - Multi-Modal'!A5:A105),0)</f>
+        <v>0.52</v>
       </c>
       <c r="G17" s="4">
         <f>COUNTIF('Phase 3 - Multi-Modal'!E:E,"Blocked")</f>
@@ -2332,7 +2365,7 @@
       </c>
       <c r="B24">
         <f>COUNTA('Phase 1 - Infrastructure'!A:A)+COUNTA('Phase 2 - API &amp; Compute'!A:A)+COUNTA('Phase 3 - Multi-Modal'!A:A)+COUNTA('Phase 4 - ML Integration'!A:A)+COUNTA('Phase 5 - Monitoring'!A:A)+COUNTA('Phase 6 - CICD'!A:A)</f>
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2340,7 +2373,7 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2364,7 +2397,7 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2383,7 +2416,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -3856,11 +3889,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4000,7 +4033,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>67</v>
@@ -4009,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -4084,7 +4117,7 @@
         <v>66</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>67</v>
@@ -4093,7 +4126,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -4124,7 +4157,9 @@
         <v>0</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="J11" s="10" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
@@ -4140,7 +4175,7 @@
         <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>67</v>
@@ -4149,7 +4184,7 @@
         <v>0.5</v>
       </c>
       <c r="H12" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -4168,7 +4203,7 @@
         <v>66</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>67</v>
@@ -4177,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -4190,13 +4225,13 @@
         <v>83</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>169</v>
+        <v>387</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>67</v>
@@ -4205,7 +4240,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -4218,22 +4253,22 @@
         <v>83</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>171</v>
+        <v>388</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G15" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H15" s="10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -4246,13 +4281,13 @@
         <v>83</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>173</v>
+        <v>389</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>67</v>
@@ -4261,7 +4296,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -4271,25 +4306,25 @@
         <v>174</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>175</v>
+        <v>390</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -4299,25 +4334,25 @@
         <v>176</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>177</v>
+        <v>391</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>94</v>
       </c>
       <c r="G18" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -4327,10 +4362,10 @@
         <v>178</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>66</v>
@@ -4338,11 +4373,11 @@
       <c r="E19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>94</v>
+      <c r="F19" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="G19" s="10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="10">
         <v>0</v>
@@ -4355,10 +4390,10 @@
         <v>180</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>66</v>
@@ -4366,8 +4401,8 @@
       <c r="E20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>94</v>
+      <c r="F20" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="G20" s="10">
         <v>1</v>
@@ -4383,10 +4418,10 @@
         <v>182</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>66</v>
@@ -4394,11 +4429,11 @@
       <c r="E21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>94</v>
+      <c r="F21" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="G21" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H21" s="10">
         <v>0</v>
@@ -4411,10 +4446,10 @@
         <v>184</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>66</v>
@@ -4426,7 +4461,7 @@
         <v>67</v>
       </c>
       <c r="G22" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="10">
         <v>0</v>
@@ -4439,10 +4474,10 @@
         <v>186</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>66</v>
@@ -4450,11 +4485,11 @@
       <c r="E23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>67</v>
+      <c r="F23" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="G23" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H23" s="10">
         <v>0</v>
@@ -4467,10 +4502,10 @@
         <v>188</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>66</v>
@@ -4479,22 +4514,162 @@
         <v>29</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G24" s="10">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H24" s="10">
         <v>0</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E5:E100">
+  <conditionalFormatting sqref="E5:E105">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
@@ -4509,10 +4684,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" errorTitle="Invalid Entry" error="Invalid status" sqref="E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" errorTitle="Invalid Entry" error="Invalid status" sqref="E5 E6 E7 E8 E9 E10 E11 E12 E13:E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Not Started,In Progress,Complete,Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorTitle="Invalid Entry" error="Invalid priority" sqref="F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" errorTitle="Invalid Entry" error="Invalid priority" sqref="F5 F6 F7 F8 F9 F10 F11 F12 F13:F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/Project_Tracker.xlsx
+++ b/docs/Project_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potbelly-my.sharepoint.com/personal/anicia_clayton_potbelly_com/Documents/Desktop/linguallearn-portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EC2CE71-16DC-497E-97AA-FF46821CF4EA}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F93A003E-78FC-4C25-9955-E34EDEC749E5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="📊 Project Overview" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="402">
   <si>
     <t>LINGUALLEARN AI - PROJECT TRACKER</t>
   </si>
@@ -1243,13 +1243,19 @@
     <t>P3-T025</t>
   </si>
   <si>
-    <t>54.5 / 120</t>
-  </si>
-  <si>
-    <t>49 (36%)</t>
-  </si>
-  <si>
-    <t>84 (61%)</t>
+    <t>Authentication error</t>
+  </si>
+  <si>
+    <t>Reset Secret</t>
+  </si>
+  <si>
+    <t>58 / 120</t>
+  </si>
+  <si>
+    <t>51 (37%)</t>
+  </si>
+  <si>
+    <t>82 (60%)</t>
   </si>
 </sst>
 </file>
@@ -2028,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2268,7 +2274,7 @@
       </c>
       <c r="F17" s="16">
         <f>IFERROR(COUNTIF('Phase 3 - Multi-Modal'!E5:E105,"Complete")/COUNTA('Phase 3 - Multi-Modal'!A5:A105),0)</f>
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="G17" s="4">
         <f>COUNTIF('Phase 3 - Multi-Modal'!E:E,"Blocked")</f>
@@ -2373,7 +2379,7 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2397,7 +2403,7 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2416,7 +2422,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -3891,9 +3897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4371,7 +4377,7 @@
         <v>66</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>67</v>
@@ -4380,10 +4386,14 @@
         <v>2</v>
       </c>
       <c r="H19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -4399,7 +4409,7 @@
         <v>66</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>67</v>
@@ -4408,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>

--- a/docs/Project_Tracker.xlsx
+++ b/docs/Project_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potbelly-my.sharepoint.com/personal/anicia_clayton_potbelly_com/Documents/Desktop/linguallearn-portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F93A003E-78FC-4C25-9955-E34EDEC749E5}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F1B936-D5A0-447F-86D5-10FD26BBB65C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="📊 Project Overview" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="401">
   <si>
     <t>LINGUALLEARN AI - PROJECT TRACKER</t>
   </si>
@@ -1195,9 +1195,6 @@
     <t>AI Engineer Portfolio</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>Phase 3 - Multi-Modal Layer</t>
   </si>
   <si>
@@ -1249,13 +1246,13 @@
     <t>Reset Secret</t>
   </si>
   <si>
-    <t>58 / 120</t>
-  </si>
-  <si>
-    <t>51 (37%)</t>
-  </si>
-  <si>
-    <t>82 (60%)</t>
+    <t>62 / 120</t>
+  </si>
+  <si>
+    <t>61 (45%)</t>
+  </si>
+  <si>
+    <t>72 (53%)</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1402,6 +1399,12 @@
         <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1443,7 +1446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1514,7 +1517,6 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1524,6 +1526,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1727,8 +1733,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC6EFCE"/>
       <color rgb="FFFFEB9C"/>
-      <color rgb="FFC6EFCE"/>
       <color rgb="FFFFC7CE"/>
     </mruColors>
   </colors>
@@ -2034,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2050,100 +2056,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="B7" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="B8" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2152,27 +2158,27 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="B10" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2263,8 +2269,8 @@
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>381</v>
+      <c r="C17" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>30</v>
@@ -2274,7 +2280,7 @@
       </c>
       <c r="F17" s="16">
         <f>IFERROR(COUNTIF('Phase 3 - Multi-Modal'!E5:E105,"Complete")/COUNTA('Phase 3 - Multi-Modal'!A5:A105),0)</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G17" s="4">
         <f>COUNTIF('Phase 3 - Multi-Modal'!E:E,"Blocked")</f>
@@ -2379,7 +2385,7 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2403,7 +2409,7 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2422,7 +2428,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2465,24 +2471,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2517,14 +2523,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -2559,14 +2565,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -2601,14 +2607,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -2635,14 +2641,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -2701,7 +2707,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -2712,18 +2718,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3214,18 +3220,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3897,15 +3903,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -3916,25 +3922,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>381</v>
+      <c r="B2" s="33" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4151,7 +4157,7 @@
         <v>66</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>67</v>
@@ -4164,7 +4170,7 @@
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4231,7 +4237,7 @@
         <v>83</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>66</v>
@@ -4259,7 +4265,7 @@
         <v>83</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>66</v>
@@ -4287,7 +4293,7 @@
         <v>83</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>66</v>
@@ -4315,7 +4321,7 @@
         <v>83</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>66</v>
@@ -4343,7 +4349,7 @@
         <v>83</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>66</v>
@@ -4389,10 +4395,10 @@
         <v>2.5</v>
       </c>
       <c r="I19" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>397</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4437,7 +4443,7 @@
         <v>66</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>67</v>
@@ -4446,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -4465,7 +4471,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>67</v>
@@ -4477,7 +4483,9 @@
         <v>0</v>
       </c>
       <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="10" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
@@ -4493,7 +4501,7 @@
         <v>66</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>94</v>
@@ -4505,7 +4513,9 @@
         <v>0</v>
       </c>
       <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="J23" s="10" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
@@ -4521,7 +4531,7 @@
         <v>66</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>94</v>
@@ -4533,11 +4543,13 @@
         <v>0</v>
       </c>
       <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="J24" s="10" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>92</v>
@@ -4549,7 +4561,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>94</v>
@@ -4558,14 +4570,14 @@
         <v>1</v>
       </c>
       <c r="H25" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>92</v>
@@ -4577,7 +4589,7 @@
         <v>66</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>94</v>
@@ -4586,14 +4598,14 @@
         <v>0.5</v>
       </c>
       <c r="H26" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>92</v>
@@ -4605,7 +4617,7 @@
         <v>66</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>67</v>
@@ -4621,7 +4633,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>92</v>
@@ -4633,7 +4645,7 @@
         <v>66</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>67</v>
@@ -4642,14 +4654,14 @@
         <v>1.5</v>
       </c>
       <c r="H28" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>92</v>
@@ -4661,7 +4673,7 @@
         <v>66</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>101</v>
@@ -4670,7 +4682,7 @@
         <v>0.5</v>
       </c>
       <c r="H29" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -4728,18 +4740,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -5394,18 +5406,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6032,18 +6044,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6697,17 +6709,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -6824,14 +6836,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">

--- a/docs/Project_Tracker.xlsx
+++ b/docs/Project_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potbelly-my.sharepoint.com/personal/anicia_clayton_potbelly_com/Documents/Desktop/linguallearn-portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F1B936-D5A0-447F-86D5-10FD26BBB65C}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{217E4410-5670-495F-9628-C77FFC9E0A01}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="405">
   <si>
     <t>LINGUALLEARN AI - PROJECT TRACKER</t>
   </si>
@@ -1195,18 +1195,9 @@
     <t>AI Engineer Portfolio</t>
   </si>
   <si>
-    <t>Phase 3 - Multi-Modal Layer</t>
-  </si>
-  <si>
-    <t>Delayed a week</t>
-  </si>
-  <si>
     <t>AWS (VPC, EC2, RDS, Lambda, S3, CloudFront, ALB, CloudWatch, Secrets Manager), Terraform, Python, FastAPI, PostgreSQL</t>
   </si>
   <si>
-    <t>7 Weeks (90-120 hours total)</t>
-  </si>
-  <si>
     <t>Later enhancement</t>
   </si>
   <si>
@@ -1246,13 +1237,34 @@
     <t>Reset Secret</t>
   </si>
   <si>
-    <t>62 / 120</t>
-  </si>
-  <si>
-    <t>61 (45%)</t>
-  </si>
-  <si>
-    <t>72 (53%)</t>
+    <t>Future Demos</t>
+  </si>
+  <si>
+    <t>Furture Demos</t>
+  </si>
+  <si>
+    <t>Later Enhancement items</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>68.5 / 120</t>
+  </si>
+  <si>
+    <t>66 (48%)</t>
+  </si>
+  <si>
+    <t>67 (49%)</t>
+  </si>
+  <si>
+    <t>Phase 4 - ML Integration Layer</t>
+  </si>
+  <si>
+    <t>Delayed 2 weeks</t>
+  </si>
+  <si>
+    <t>8 Weeks (90-120 hours total)</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1517,6 +1529,10 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1528,10 +1544,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1733,8 +1746,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFEB9C"/>
       <color rgb="FFC6EFCE"/>
-      <color rgb="FFFFEB9C"/>
       <color rgb="FFFFC7CE"/>
     </mruColors>
   </colors>
@@ -2040,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2056,100 +2069,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="B5" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="B7" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="B8" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2158,27 +2171,27 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="B10" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2269,7 +2282,7 @@
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -2286,7 +2299,9 @@
         <f>COUNTIF('Phase 3 - Multi-Modal'!E:E,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -2295,8 +2310,8 @@
       <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>29</v>
+      <c r="C18" s="15" t="s">
+        <v>398</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>33</v>
@@ -2306,7 +2321,7 @@
       </c>
       <c r="F18" s="16">
         <f>IFERROR(COUNTIF('Phase 4 - ML Integration'!E5:E100,"Complete")/COUNTA('Phase 4 - ML Integration'!A5:A100),0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G18" s="4">
         <f>COUNTIF('Phase 4 - ML Integration'!E:E,"Blocked")</f>
@@ -2385,7 +2400,7 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2409,7 +2424,7 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2428,7 +2443,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2471,24 +2486,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2523,14 +2538,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -2565,14 +2580,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -2607,14 +2622,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -2641,14 +2656,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -2718,18 +2733,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3220,18 +3235,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3905,7 +3920,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3922,24 +3937,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="28" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4170,7 +4185,7 @@
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4237,7 +4252,7 @@
         <v>83</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>66</v>
@@ -4265,7 +4280,7 @@
         <v>83</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>66</v>
@@ -4293,7 +4308,7 @@
         <v>83</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>66</v>
@@ -4321,7 +4336,7 @@
         <v>83</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>66</v>
@@ -4349,7 +4364,7 @@
         <v>83</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>66</v>
@@ -4395,10 +4410,10 @@
         <v>2.5</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4484,7 +4499,7 @@
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4514,7 +4529,7 @@
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4544,12 +4559,12 @@
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>92</v>
@@ -4577,7 +4592,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>92</v>
@@ -4605,7 +4620,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>92</v>
@@ -4633,7 +4648,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>92</v>
@@ -4661,7 +4676,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>92</v>
@@ -4723,13 +4738,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -4740,25 +4755,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>29</v>
+      <c r="B2" s="35" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4807,7 +4822,7 @@
         <v>66</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>67</v>
@@ -4816,7 +4831,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -4835,7 +4850,7 @@
         <v>66</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>67</v>
@@ -4844,7 +4859,7 @@
         <v>1.5</v>
       </c>
       <c r="H6" s="10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -4863,7 +4878,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>67</v>
@@ -4872,7 +4887,7 @@
         <v>0.5</v>
       </c>
       <c r="H7" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -4891,7 +4906,7 @@
         <v>66</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>67</v>
@@ -4900,7 +4915,7 @@
         <v>0.5</v>
       </c>
       <c r="H8" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -5406,18 +5421,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6044,18 +6059,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6709,17 +6724,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -6836,14 +6851,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">

--- a/docs/Project_Tracker.xlsx
+++ b/docs/Project_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potbelly-my.sharepoint.com/personal/anicia_clayton_potbelly_com/Documents/Desktop/linguallearn-portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{217E4410-5670-495F-9628-C77FFC9E0A01}"/>
+  <xr:revisionPtr revIDLastSave="376" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E33E9FA3-5744-4F97-A281-9E57EAB7E73C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="411">
   <si>
     <t>LINGUALLEARN AI - PROJECT TRACKER</t>
   </si>
@@ -1249,15 +1249,6 @@
     <t>In progress</t>
   </si>
   <si>
-    <t>68.5 / 120</t>
-  </si>
-  <si>
-    <t>66 (48%)</t>
-  </si>
-  <si>
-    <t>67 (49%)</t>
-  </si>
-  <si>
     <t>Phase 4 - ML Integration Layer</t>
   </si>
   <si>
@@ -1265,6 +1256,33 @@
   </si>
   <si>
     <t>8 Weeks (90-120 hours total)</t>
+  </si>
+  <si>
+    <t>Phase 3</t>
+  </si>
+  <si>
+    <t>API &amp; compute layer complete - 100%</t>
+  </si>
+  <si>
+    <t>Multi-Modal Activity Tracking complete - 97%</t>
+  </si>
+  <si>
+    <t>AWS Resource size limit</t>
+  </si>
+  <si>
+    <t>Lambda Layers to separate dependencies</t>
+  </si>
+  <si>
+    <t>70 (51%)</t>
+  </si>
+  <si>
+    <t>63 (46%)</t>
+  </si>
+  <si>
+    <t>76.5 / 120</t>
+  </si>
+  <si>
+    <t>Lambda size limit - optimization</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1533,6 +1551,7 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1544,7 +1563,19 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2053,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2069,100 +2100,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="B5" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="B7" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="B8" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2171,27 +2202,27 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2321,13 +2352,15 @@
       </c>
       <c r="F18" s="16">
         <f>IFERROR(COUNTIF('Phase 4 - ML Integration'!E5:E100,"Complete")/COUNTA('Phase 4 - ML Integration'!A5:A100),0)</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G18" s="4">
         <f>COUNTIF('Phase 4 - ML Integration'!E:E,"Blocked")</f>
         <v>0</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -2400,7 +2433,7 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2424,7 +2457,7 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2443,7 +2476,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2486,24 +2519,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2538,14 +2571,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -2580,14 +2613,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -2622,14 +2655,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -2656,14 +2689,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -2733,18 +2766,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3235,18 +3268,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3937,18 +3970,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4738,7 +4771,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4755,24 +4788,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="30" t="s">
         <v>398</v>
       </c>
     </row>
@@ -4934,7 +4967,7 @@
         <v>66</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>67</v>
@@ -4943,7 +4976,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -4962,7 +4995,7 @@
         <v>66</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>67</v>
@@ -4971,7 +5004,7 @@
         <v>1.5</v>
       </c>
       <c r="H10" s="10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -4990,7 +5023,7 @@
         <v>66</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>67</v>
@@ -4999,7 +5032,7 @@
         <v>0.5</v>
       </c>
       <c r="H11" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -5018,7 +5051,7 @@
         <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>67</v>
@@ -5027,10 +5060,14 @@
         <v>1</v>
       </c>
       <c r="H12" s="10">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -5421,18 +5458,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6059,18 +6096,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6724,17 +6761,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -6834,10 +6871,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6851,14 +6888,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -6921,23 +6958,63 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="36">
         <v>45975</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>67</v>
+      <c r="F6" s="37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
+        <v>45987</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38">
+        <v>45998</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Project_Tracker.xlsx
+++ b/docs/Project_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potbelly-my.sharepoint.com/personal/anicia_clayton_potbelly_com/Documents/Desktop/linguallearn-portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="376" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E33E9FA3-5744-4F97-A281-9E57EAB7E73C}"/>
+  <xr:revisionPtr revIDLastSave="390" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA01F7CB-A576-49BC-89C3-6A10030AD7FD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="412">
   <si>
     <t>LINGUALLEARN AI - PROJECT TRACKER</t>
   </si>
@@ -1273,16 +1273,19 @@
     <t>Lambda Layers to separate dependencies</t>
   </si>
   <si>
-    <t>70 (51%)</t>
-  </si>
-  <si>
-    <t>63 (46%)</t>
-  </si>
-  <si>
-    <t>76.5 / 120</t>
-  </si>
-  <si>
     <t>Lambda size limit - optimization</t>
+  </si>
+  <si>
+    <t>Resolved a few errors</t>
+  </si>
+  <si>
+    <t>81.5 / 120</t>
+  </si>
+  <si>
+    <t>73 (53%)</t>
+  </si>
+  <si>
+    <t>60 (44%)</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1552,6 +1555,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1563,19 +1576,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2084,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2100,100 +2100,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="36" t="s">
         <v>401</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2202,27 +2202,27 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="36" t="s">
         <v>381</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2352,14 +2352,14 @@
       </c>
       <c r="F18" s="16">
         <f>IFERROR(COUNTIF('Phase 4 - ML Integration'!E5:E100,"Complete")/COUNTA('Phase 4 - ML Integration'!A5:A100),0)</f>
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G18" s="4">
         <f>COUNTIF('Phase 4 - ML Integration'!E:E,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2433,7 +2433,7 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2457,7 +2457,7 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2519,24 +2519,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2571,14 +2571,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -2613,14 +2613,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -2655,14 +2655,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -2689,14 +2689,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -2766,18 +2766,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3268,18 +3268,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3970,18 +3970,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4771,7 +4771,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4788,18 +4788,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -5083,7 +5083,7 @@
         <v>66</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>67</v>
@@ -5092,7 +5092,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -5111,7 +5111,7 @@
         <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>67</v>
@@ -5120,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -5139,7 +5139,7 @@
         <v>66</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>67</v>
@@ -5148,10 +5148,12 @@
         <v>1</v>
       </c>
       <c r="H15" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="J15" s="10" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -5458,18 +5460,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6096,18 +6098,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6761,17 +6763,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -6888,14 +6890,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -6958,62 +6960,62 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="36">
+      <c r="A6" s="31">
         <v>45975</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="37" t="s">
+      <c r="B6" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F6" s="37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
+      <c r="F6" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
         <v>45987</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="F7" s="39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
+      <c r="F7" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
         <v>45998</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="10" t="s">
         <v>94</v>
       </c>
     </row>

--- a/docs/Project_Tracker.xlsx
+++ b/docs/Project_Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potbelly-my.sharepoint.com/personal/anicia_clayton_potbelly_com/Documents/Desktop/linguallearn-portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="390" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA01F7CB-A576-49BC-89C3-6A10030AD7FD}"/>
+  <xr:revisionPtr revIDLastSave="422" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85DC468D-005A-42EE-A2F3-CDD805B69507}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <sheet name="📖 How to Use" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="418">
   <si>
     <t>LINGUALLEARN AI - PROJECT TRACKER</t>
   </si>
@@ -692,19 +693,10 @@
     <t>P4-T013</t>
   </si>
   <si>
-    <t>Create AnkiDeck API Client</t>
-  </si>
-  <si>
     <t>P4-T014</t>
   </si>
   <si>
-    <t>Create Lambda for AnkiDeck Sync</t>
-  </si>
-  <si>
     <t>P4-T015</t>
-  </si>
-  <si>
-    <t>Test API Integration</t>
   </si>
   <si>
     <t>P4-T016</t>
@@ -1279,13 +1271,40 @@
     <t>Resolved a few errors</t>
   </si>
   <si>
-    <t>81.5 / 120</t>
-  </si>
-  <si>
-    <t>73 (53%)</t>
-  </si>
-  <si>
-    <t>60 (44%)</t>
+    <t>No AnkiDeck integration</t>
+  </si>
+  <si>
+    <t>Manual Curated vocabulary</t>
+  </si>
+  <si>
+    <t>Phase 4</t>
+  </si>
+  <si>
+    <t>Task Set</t>
+  </si>
+  <si>
+    <t>AnkiDeck API Integration to Seeded Vocabulary</t>
+  </si>
+  <si>
+    <t>Create Vocubulary Seed Files</t>
+  </si>
+  <si>
+    <t>Create Vocabulary Seeding Script</t>
+  </si>
+  <si>
+    <t>Seed Vocabulary Database &amp; Verify Data Integrity</t>
+  </si>
+  <si>
+    <t>UTF-8 encoding challenges</t>
+  </si>
+  <si>
+    <t>88.5 / 120</t>
+  </si>
+  <si>
+    <t>56 (44%)</t>
+  </si>
+  <si>
+    <t>77 (53%)</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1575,6 +1594,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2085,7 +2107,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2130,7 +2152,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -2144,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -2172,7 +2194,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -2186,7 +2208,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -2203,7 +2225,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -2303,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2331,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2342,7 +2364,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>33</v>
@@ -2352,14 +2374,14 @@
       </c>
       <c r="F18" s="16">
         <f>IFERROR(COUNTIF('Phase 4 - ML Integration'!E5:E100,"Complete")/COUNTA('Phase 4 - ML Integration'!A5:A100),0)</f>
-        <v>0.55000000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="G18" s="4">
         <f>COUNTIF('Phase 4 - ML Integration'!E:E,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2433,7 +2455,7 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2457,7 +2479,7 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2476,7 +2498,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2520,7 +2542,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -2530,7 +2552,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -2540,39 +2562,39 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -2582,39 +2604,39 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -2624,39 +2646,39 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B20" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2666,31 +2688,31 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B23" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B24" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2700,34 +2722,34 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B28" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B30" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B31" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3952,7 +3974,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -4218,7 +4240,7 @@
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4285,7 +4307,7 @@
         <v>83</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>66</v>
@@ -4313,7 +4335,7 @@
         <v>83</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>66</v>
@@ -4341,7 +4363,7 @@
         <v>83</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>66</v>
@@ -4369,7 +4391,7 @@
         <v>83</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>66</v>
@@ -4397,7 +4419,7 @@
         <v>83</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>66</v>
@@ -4443,10 +4465,10 @@
         <v>2.5</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4532,7 +4554,7 @@
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4562,7 +4584,7 @@
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4592,12 +4614,12 @@
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>92</v>
@@ -4625,7 +4647,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>92</v>
@@ -4653,7 +4675,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>92</v>
@@ -4681,7 +4703,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>92</v>
@@ -4709,7 +4731,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>92</v>
@@ -4771,7 +4793,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4806,7 +4828,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5063,10 +5085,10 @@
         <v>4</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5152,7 +5174,7 @@
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5169,7 +5191,7 @@
         <v>66</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>94</v>
@@ -5178,10 +5200,14 @@
         <v>1</v>
       </c>
       <c r="H16" s="10">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -5191,13 +5217,13 @@
         <v>87</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>216</v>
+        <v>411</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>67</v>
@@ -5206,26 +5232,26 @@
         <v>2</v>
       </c>
       <c r="H17" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>218</v>
+        <v>412</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>67</v>
@@ -5234,26 +5260,26 @@
         <v>1.5</v>
       </c>
       <c r="H18" s="10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>220</v>
+        <v>413</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>67</v>
@@ -5262,20 +5288,22 @@
         <v>1</v>
       </c>
       <c r="H19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>414</v>
+      </c>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>66</v>
@@ -5297,13 +5325,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>66</v>
@@ -5325,13 +5353,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>66</v>
@@ -5353,13 +5381,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>66</v>
@@ -5381,13 +5409,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>66</v>
@@ -5461,7 +5489,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -5515,13 +5543,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>66</v>
@@ -5543,13 +5571,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>66</v>
@@ -5571,13 +5599,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>66</v>
@@ -5599,13 +5627,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>66</v>
@@ -5627,13 +5655,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>66</v>
@@ -5655,13 +5683,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>66</v>
@@ -5683,13 +5711,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>66</v>
@@ -5711,13 +5739,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>66</v>
@@ -5739,13 +5767,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>66</v>
@@ -5767,13 +5795,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>66</v>
@@ -5795,13 +5823,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>66</v>
@@ -5823,13 +5851,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>66</v>
@@ -5851,13 +5879,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>66</v>
@@ -5879,13 +5907,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>66</v>
@@ -5907,13 +5935,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>66</v>
@@ -5935,13 +5963,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>66</v>
@@ -5963,13 +5991,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>66</v>
@@ -5991,13 +6019,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>66</v>
@@ -6019,13 +6047,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>66</v>
@@ -6099,7 +6127,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -6153,13 +6181,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>66</v>
@@ -6181,13 +6209,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>66</v>
@@ -6209,13 +6237,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>66</v>
@@ -6237,13 +6265,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>66</v>
@@ -6265,13 +6293,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>66</v>
@@ -6293,13 +6321,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>66</v>
@@ -6321,13 +6349,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>66</v>
@@ -6349,13 +6377,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>66</v>
@@ -6377,13 +6405,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>66</v>
@@ -6405,13 +6433,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>66</v>
@@ -6433,13 +6461,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>66</v>
@@ -6461,13 +6489,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>66</v>
@@ -6489,13 +6517,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>66</v>
@@ -6517,13 +6545,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>66</v>
@@ -6545,13 +6573,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>66</v>
@@ -6573,13 +6601,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>66</v>
@@ -6601,13 +6629,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>66</v>
@@ -6629,13 +6657,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>66</v>
@@ -6657,13 +6685,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>66</v>
@@ -6685,13 +6713,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>66</v>
@@ -6764,7 +6792,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -6777,7 +6805,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -6789,7 +6817,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
@@ -6798,24 +6826,24 @@
         <v>58</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>109</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>67</v>
@@ -6827,7 +6855,7 @@
         <v>66</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I4" s="19">
         <v>45974</v>
@@ -6835,28 +6863,28 @@
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>66</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I5" s="22">
         <v>45975</v>
@@ -6873,10 +6901,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6891,7 +6919,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -6901,22 +6929,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6927,13 +6955,13 @@
         <v>66</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>101</v>
@@ -6947,13 +6975,13 @@
         <v>66</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>67</v>
@@ -6967,13 +6995,13 @@
         <v>66</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>67</v>
@@ -6987,13 +7015,13 @@
         <v>66</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>67</v>
@@ -7007,15 +7035,35 @@
         <v>66</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F8" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
+        <v>46006</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="F9" s="40" t="s">
         <v>94</v>
       </c>
     </row>

--- a/docs/Project_Tracker.xlsx
+++ b/docs/Project_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potbelly-my.sharepoint.com/personal/anicia_clayton_potbelly_com/Documents/Desktop/linguallearn-portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="422" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85DC468D-005A-42EE-A2F3-CDD805B69507}"/>
+  <xr:revisionPtr revIDLastSave="476" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E6742A7-11C2-4651-96B1-4F1B7579DEA0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="421">
   <si>
     <t>LINGUALLEARN AI - PROJECT TRACKER</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>API &amp; Compute Layer</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>Week 2 Day 1</t>
@@ -1298,13 +1295,27 @@
     <t>UTF-8 encoding challenges</t>
   </si>
   <si>
-    <t>88.5 / 120</t>
-  </si>
-  <si>
-    <t>56 (44%)</t>
-  </si>
-  <si>
-    <t>77 (53%)</t>
+    <t>Cancelled - pivot from AnkiDeck API</t>
+  </si>
+  <si>
+    <t>UTC-8 Encoding</t>
+  </si>
+  <si>
+    <t>B003</t>
+  </si>
+  <si>
+    <t>1. Upload files to S3
+2. SSM into EC2
+3. Dowload files</t>
+  </si>
+  <si>
+    <t>89.5 / 120</t>
+  </si>
+  <si>
+    <t>55 (40%)</t>
+  </si>
+  <si>
+    <t>78 (57%)</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1457,8 +1468,14 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1494,11 +1511,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1583,7 +1611,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1598,6 +1625,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2106,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2122,100 +2165,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="B4" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="B5" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="B7" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>397</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2224,27 +2267,27 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
+      <c r="B10" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2311,10 +2354,10 @@
         <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F16" s="16">
         <f>IFERROR(COUNTIF('Phase 2 - API &amp; Compute'!E5:E100,"Complete")/COUNTA('Phase 2 - API &amp; Compute'!A5:A100),0)</f>
@@ -2325,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2333,16 +2376,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F17" s="16">
         <f>IFERROR(COUNTIF('Phase 3 - Multi-Modal'!E5:E105,"Complete")/COUNTA('Phase 3 - Multi-Modal'!A5:A105),0)</f>
@@ -2353,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2361,27 +2404,27 @@
         <v>4</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F18" s="16">
         <f>IFERROR(COUNTIF('Phase 4 - ML Integration'!E5:E100,"Complete")/COUNTA('Phase 4 - ML Integration'!A5:A100),0)</f>
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="G18" s="4">
         <f>COUNTIF('Phase 4 - ML Integration'!E:E,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2389,16 +2432,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="F19" s="16">
         <f>IFERROR(COUNTIF('Phase 5 - Monitoring'!E5:E100,"Complete")/COUNTA('Phase 5 - Monitoring'!A5:A100),0)</f>
@@ -2415,16 +2458,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="F20" s="16">
         <f>IFERROR(COUNTIF('Phase 6 - CICD'!E5:E100,"Complete")/COUNTA('Phase 6 - CICD'!A5:A100),0)</f>
@@ -2438,12 +2481,12 @@
     </row>
     <row r="23" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <f>COUNTA('Phase 1 - Infrastructure'!A:A)+COUNTA('Phase 2 - API &amp; Compute'!A:A)+COUNTA('Phase 3 - Multi-Modal'!A:A)+COUNTA('Phase 4 - ML Integration'!A:A)+COUNTA('Phase 5 - Monitoring'!A:A)+COUNTA('Phase 6 - CICD'!A:A)</f>
@@ -2452,34 +2495,34 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
         <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
         <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2487,26 +2530,26 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
         <v>49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2541,215 +2584,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" t="s">
         <v>330</v>
-      </c>
-      <c r="B5" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" t="s">
         <v>332</v>
-      </c>
-      <c r="B6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" t="s">
         <v>334</v>
-      </c>
-      <c r="B7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" t="s">
         <v>336</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" t="s">
         <v>339</v>
-      </c>
-      <c r="B11" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" t="s">
         <v>341</v>
-      </c>
-      <c r="B12" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" t="s">
         <v>343</v>
-      </c>
-      <c r="B13" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" t="s">
         <v>345</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
-        <v>347</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" t="s">
         <v>348</v>
-      </c>
-      <c r="B17" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" t="s">
         <v>350</v>
-      </c>
-      <c r="B18" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B19" t="s">
         <v>352</v>
-      </c>
-      <c r="B19" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B20" t="s">
         <v>354</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" t="s">
         <v>357</v>
-      </c>
-      <c r="B23" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B24" t="s">
         <v>359</v>
-      </c>
-      <c r="B24" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" t="s">
         <v>361</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B28" t="s">
         <v>364</v>
-      </c>
-      <c r="B28" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" t="s">
         <v>366</v>
-      </c>
-      <c r="B29" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B30" t="s">
         <v>368</v>
-      </c>
-      <c r="B30" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B31" t="s">
         <v>370</v>
-      </c>
-      <c r="B31" t="s">
-        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -2788,22 +2831,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="A1" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>20</v>
@@ -2811,31 +2854,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
@@ -2843,22 +2886,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="D5" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="10">
         <v>0.5</v>
@@ -2871,22 +2914,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="D6" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="10">
         <v>0.5</v>
@@ -2899,22 +2942,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="D7" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="10">
         <v>0.5</v>
@@ -2927,22 +2970,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="D8" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -2955,22 +2998,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="D9" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
@@ -2980,27 +3023,27 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="D10" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="10">
         <v>1</v>
@@ -3013,22 +3056,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="D11" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="10">
         <v>0.5</v>
@@ -3041,22 +3084,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="D12" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="10">
         <v>2</v>
@@ -3066,27 +3109,27 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="D13" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="10">
         <v>1.5</v>
@@ -3099,22 +3142,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="D14" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="10">
         <v>0.5</v>
@@ -3127,22 +3170,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="G15" s="10">
         <v>1</v>
@@ -3155,22 +3198,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>96</v>
-      </c>
       <c r="D16" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" s="10">
         <v>0.5</v>
@@ -3183,22 +3226,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="D17" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="10">
         <v>2</v>
@@ -3211,22 +3254,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="G18" s="10">
         <v>0.5</v>
@@ -3290,22 +3333,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="A1" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>20</v>
@@ -3313,31 +3356,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
@@ -3345,22 +3388,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="D5" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="10">
         <v>1</v>
@@ -3373,22 +3416,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="D6" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="10">
         <v>0.5</v>
@@ -3401,22 +3444,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="D7" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="10">
         <v>0.5</v>
@@ -3429,22 +3472,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="D8" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -3453,30 +3496,30 @@
         <v>2</v>
       </c>
       <c r="I8" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="10">
         <v>1.5</v>
@@ -3485,30 +3528,30 @@
         <v>2</v>
       </c>
       <c r="I9" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="10">
         <v>1</v>
@@ -3521,22 +3564,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="10">
         <v>1</v>
@@ -3549,22 +3592,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="10">
         <v>1</v>
@@ -3577,22 +3620,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>124</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="10">
         <v>0.5</v>
@@ -3605,22 +3648,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="10">
         <v>2</v>
@@ -3633,22 +3676,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="10">
         <v>2</v>
@@ -3661,22 +3704,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="10">
         <v>1</v>
@@ -3689,22 +3732,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="D17" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="10">
         <v>1.5</v>
@@ -3717,22 +3760,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="D18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="10">
         <v>1</v>
@@ -3745,22 +3788,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="D19" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -3773,22 +3816,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="D20" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" s="10">
         <v>0.5</v>
@@ -3801,22 +3844,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>140</v>
-      </c>
       <c r="D21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" s="10">
         <v>1.5</v>
@@ -3829,22 +3872,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>142</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G22" s="10">
         <v>1</v>
@@ -3857,22 +3900,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="D23" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G23" s="10">
         <v>1.5</v>
@@ -3885,22 +3928,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="D24" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" s="10">
         <v>1</v>
@@ -3913,22 +3956,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="D25" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G25" s="10">
         <v>0.5</v>
@@ -3974,8 +4017,8 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3992,22 +4035,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="A1" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>20</v>
@@ -4015,31 +4058,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
@@ -4047,22 +4090,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="10">
         <v>1</v>
@@ -4075,22 +4118,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="10">
         <v>0.5</v>
@@ -4103,22 +4146,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>155</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
@@ -4131,22 +4174,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>157</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="10">
         <v>1.5</v>
@@ -4159,22 +4202,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>159</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="10">
         <v>1</v>
@@ -4187,22 +4230,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>161</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="10">
         <v>2</v>
@@ -4215,22 +4258,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>163</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="10">
         <v>1.5</v>
@@ -4240,27 +4283,27 @@
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>165</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="10">
         <v>0.5</v>
@@ -4273,22 +4316,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>167</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="10">
         <v>1</v>
@@ -4301,22 +4344,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="10">
         <v>2</v>
@@ -4329,22 +4372,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="10">
         <v>1.5</v>
@@ -4357,22 +4400,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="10">
         <v>1</v>
@@ -4385,22 +4428,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="10">
         <v>1</v>
@@ -4413,22 +4456,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="10">
         <v>0.5</v>
@@ -4441,22 +4484,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="10">
         <v>2</v>
@@ -4465,30 +4508,30 @@
         <v>2.5</v>
       </c>
       <c r="I19" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>390</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="10">
         <v>1</v>
@@ -4501,22 +4544,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" s="10">
         <v>1</v>
@@ -4529,22 +4572,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="10">
         <v>2</v>
@@ -4554,27 +4597,27 @@
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23" s="10">
         <v>1</v>
@@ -4584,27 +4627,27 @@
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" s="10">
         <v>1.5</v>
@@ -4614,27 +4657,27 @@
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" s="10">
         <v>1</v>
@@ -4647,22 +4690,22 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G26" s="10">
         <v>0.5</v>
@@ -4675,22 +4718,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="10">
         <v>1</v>
@@ -4703,22 +4746,22 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" s="10">
         <v>1.5</v>
@@ -4731,22 +4774,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G29" s="10">
         <v>0.5</v>
@@ -4793,7 +4836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4810,54 +4853,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="A1" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
@@ -4865,22 +4908,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="10">
         <v>2</v>
@@ -4893,22 +4936,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>194</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="10">
         <v>1.5</v>
@@ -4921,22 +4964,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="10">
         <v>0.5</v>
@@ -4949,22 +4992,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="10">
         <v>0.5</v>
@@ -4977,22 +5020,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>200</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
@@ -5005,22 +5048,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="10">
         <v>1.5</v>
@@ -5033,22 +5076,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="10">
         <v>0.5</v>
@@ -5061,22 +5104,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>206</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="10">
         <v>1</v>
@@ -5085,30 +5128,30 @@
         <v>4</v>
       </c>
       <c r="I12" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>402</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>208</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
@@ -5121,22 +5164,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="10">
         <v>1</v>
@@ -5149,22 +5192,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>212</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="10">
         <v>1</v>
@@ -5174,27 +5217,27 @@
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>214</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" s="10">
         <v>1</v>
@@ -5203,30 +5246,30 @@
         <v>2</v>
       </c>
       <c r="I16" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>406</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="10">
         <v>2</v>
@@ -5239,22 +5282,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="10">
         <v>1.5</v>
@@ -5267,22 +5310,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -5291,28 +5334,28 @@
         <v>2.5</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>219</v>
-      </c>
       <c r="D20" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="10">
         <v>1.5</v>
@@ -5321,26 +5364,28 @@
         <v>0</v>
       </c>
       <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="J20" s="10" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>221</v>
-      </c>
       <c r="D21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" s="10">
         <v>1</v>
@@ -5349,54 +5394,56 @@
         <v>0</v>
       </c>
       <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="J21" s="10" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>223</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G22" s="10">
         <v>1</v>
       </c>
       <c r="H22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>225</v>
-      </c>
       <c r="D23" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G23" s="10">
         <v>1.5</v>
@@ -5409,22 +5456,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>227</v>
-      </c>
       <c r="D24" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G24" s="10">
         <v>0.5</v>
@@ -5488,54 +5535,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="A1" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
@@ -5543,22 +5590,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="10">
         <v>2</v>
@@ -5571,22 +5618,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="10">
         <v>1.5</v>
@@ -5599,22 +5646,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>234</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="10">
         <v>0.5</v>
@@ -5627,22 +5674,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>236</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -5655,22 +5702,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>238</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="10">
         <v>3</v>
@@ -5683,22 +5730,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>240</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="10">
         <v>2</v>
@@ -5711,22 +5758,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>242</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="10">
         <v>0.5</v>
@@ -5739,22 +5786,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>244</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="10">
         <v>1.5</v>
@@ -5767,22 +5814,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>246</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
@@ -5795,22 +5842,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>248</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" s="10">
         <v>1</v>
@@ -5823,22 +5870,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>250</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="10">
         <v>1</v>
@@ -5851,22 +5898,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>252</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="10">
         <v>1</v>
@@ -5879,22 +5926,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>254</v>
-      </c>
       <c r="D17" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="10">
         <v>1</v>
@@ -5907,22 +5954,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>256</v>
-      </c>
       <c r="D18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="10">
         <v>0.5</v>
@@ -5935,22 +5982,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>258</v>
-      </c>
       <c r="D19" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -5963,22 +6010,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>260</v>
-      </c>
       <c r="D20" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="10">
         <v>2</v>
@@ -5991,22 +6038,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>262</v>
-      </c>
       <c r="D21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" s="10">
         <v>1.5</v>
@@ -6019,22 +6066,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>264</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="10">
         <v>1.5</v>
@@ -6047,22 +6094,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>266</v>
-      </c>
       <c r="D23" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23" s="10">
         <v>0.5</v>
@@ -6126,54 +6173,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="A1" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
@@ -6181,22 +6228,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>269</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="10">
         <v>2</v>
@@ -6209,22 +6256,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>271</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="10">
         <v>1.5</v>
@@ -6237,22 +6284,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>273</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="10">
         <v>0.5</v>
@@ -6265,22 +6312,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>275</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -6293,22 +6340,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>277</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
@@ -6321,22 +6368,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>279</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="10">
         <v>2</v>
@@ -6349,22 +6396,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>281</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="10">
         <v>1.5</v>
@@ -6377,22 +6424,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>283</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="10">
         <v>1</v>
@@ -6405,22 +6452,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>285</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
@@ -6433,22 +6480,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>287</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" s="10">
         <v>1</v>
@@ -6461,22 +6508,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>289</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="10">
         <v>0.5</v>
@@ -6489,22 +6536,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>291</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" s="10">
         <v>1.5</v>
@@ -6517,22 +6564,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>293</v>
-      </c>
       <c r="D17" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G17" s="10">
         <v>1.5</v>
@@ -6545,22 +6592,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>295</v>
-      </c>
       <c r="D18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="10">
         <v>1</v>
@@ -6573,22 +6620,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="D19" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -6601,22 +6648,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>299</v>
-      </c>
       <c r="D20" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="10">
         <v>2</v>
@@ -6629,22 +6676,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>301</v>
-      </c>
       <c r="D21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" s="10">
         <v>1.5</v>
@@ -6657,22 +6704,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>303</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="10">
         <v>1</v>
@@ -6685,22 +6732,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>305</v>
-      </c>
       <c r="D23" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G23" s="10">
         <v>0.5</v>
@@ -6713,22 +6760,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>307</v>
-      </c>
       <c r="D24" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" s="10">
         <v>1</v>
@@ -6771,10 +6818,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6791,103 +6838,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="A1" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>315</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>316</v>
       </c>
       <c r="I4" s="19">
         <v>45974</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="40" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="G5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>319</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>320</v>
       </c>
       <c r="I5" s="22">
         <v>45975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="I6" s="42">
+        <v>46017</v>
       </c>
     </row>
   </sheetData>
@@ -6904,7 +6980,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6918,33 +6994,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="A1" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6952,19 +7028,19 @@
         <v>45967</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>375</v>
-      </c>
       <c r="F4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6972,19 +7048,19 @@
         <v>45974</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>327</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6992,79 +7068,79 @@
         <v>45975</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33">
         <v>45987</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33">
         <v>45998</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33">
         <v>46006</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="40" t="s">
+      <c r="B9" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="E9" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="E9" s="40" t="s">
-        <v>410</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>94</v>
+      <c r="F9" s="39" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Project_Tracker.xlsx
+++ b/docs/Project_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potbelly-my.sharepoint.com/personal/anicia_clayton_potbelly_com/Documents/Desktop/linguallearn-portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="476" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E6742A7-11C2-4651-96B1-4F1B7579DEA0}"/>
+  <xr:revisionPtr revIDLastSave="492" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2B390FA-AB78-46FA-B695-B818AF2BA5DB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="420">
   <si>
     <t>LINGUALLEARN AI - PROJECT TRACKER</t>
   </si>
@@ -1181,9 +1181,6 @@
     <t>Git sync issue- nested repo + restructured folders</t>
   </si>
   <si>
-    <t>AI Engineer Portfolio</t>
-  </si>
-  <si>
     <t>AWS (VPC, EC2, RDS, Lambda, S3, CloudFront, ALB, CloudWatch, Secrets Manager), Terraform, Python, FastAPI, PostgreSQL</t>
   </si>
   <si>
@@ -1233,12 +1230,6 @@
   </si>
   <si>
     <t>Later Enhancement items</t>
-  </si>
-  <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>Phase 4 - ML Integration Layer</t>
   </si>
   <si>
     <t>Delayed 2 weeks</t>
@@ -1309,13 +1300,19 @@
 3. Dowload files</t>
   </si>
   <si>
-    <t>89.5 / 120</t>
-  </si>
-  <si>
-    <t>55 (40%)</t>
-  </si>
-  <si>
-    <t>78 (57%)</t>
+    <t>91.5 / 120</t>
+  </si>
+  <si>
+    <t>53 (40%)</t>
+  </si>
+  <si>
+    <t>80 (58%)</t>
+  </si>
+  <si>
+    <t>Phase 5 - Monitoring</t>
+  </si>
+  <si>
+    <t>MLOps Engineer Portfolio</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1601,7 +1598,6 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1842,8 +1838,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC6EFCE"/>
       <color rgb="FFFFEB9C"/>
-      <color rgb="FFC6EFCE"/>
       <color rgb="FFFFC7CE"/>
     </mruColors>
   </colors>
@@ -2149,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2165,100 +2161,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>376</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="B4" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2267,27 +2263,27 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="B10" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2396,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2406,8 +2402,8 @@
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>394</v>
+      <c r="C18" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>32</v>
@@ -2417,14 +2413,14 @@
       </c>
       <c r="F18" s="16">
         <f>IFERROR(COUNTIF('Phase 4 - ML Integration'!E5:E100,"Complete")/COUNTA('Phase 4 - ML Integration'!A5:A100),0)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4">
         <f>COUNTIF('Phase 4 - ML Integration'!E:E,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2498,7 +2494,7 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2522,7 +2518,7 @@
         <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2541,7 +2537,7 @@
         <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2584,24 +2580,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2636,14 +2632,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -2678,14 +2674,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -2720,14 +2716,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -2754,14 +2750,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -2831,18 +2827,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3333,18 +3329,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4035,18 +4031,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4283,7 +4279,7 @@
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4350,7 +4346,7 @@
         <v>82</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>65</v>
@@ -4378,7 +4374,7 @@
         <v>82</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>65</v>
@@ -4406,7 +4402,7 @@
         <v>82</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>65</v>
@@ -4434,7 +4430,7 @@
         <v>82</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>65</v>
@@ -4462,7 +4458,7 @@
         <v>82</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>65</v>
@@ -4508,10 +4504,10 @@
         <v>2.5</v>
       </c>
       <c r="I19" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>389</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4597,7 +4593,7 @@
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4627,7 +4623,7 @@
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4657,12 +4653,12 @@
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>91</v>
@@ -4690,7 +4686,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>91</v>
@@ -4718,7 +4714,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>91</v>
@@ -4746,7 +4742,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>91</v>
@@ -4774,7 +4770,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>91</v>
@@ -4836,7 +4832,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4853,25 +4849,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>394</v>
+      <c r="B2" s="28" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5128,10 +5124,10 @@
         <v>4</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5217,7 +5213,7 @@
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5246,10 +5242,10 @@
         <v>2</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5260,7 +5256,7 @@
         <v>86</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>65</v>
@@ -5288,7 +5284,7 @@
         <v>86</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>65</v>
@@ -5316,7 +5312,7 @@
         <v>86</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>65</v>
@@ -5334,7 +5330,7 @@
         <v>2.5</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J19" s="10"/>
     </row>
@@ -5365,7 +5361,7 @@
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5395,7 +5391,7 @@
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5440,7 +5436,7 @@
         <v>65</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>66</v>
@@ -5449,7 +5445,7 @@
         <v>1.5</v>
       </c>
       <c r="H23" s="10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -5468,7 +5464,7 @@
         <v>65</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>100</v>
@@ -5477,7 +5473,7 @@
         <v>0.5</v>
       </c>
       <c r="H24" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -5509,6 +5505,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5535,18 +5532,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6173,18 +6170,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6838,17 +6835,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -6908,7 +6905,7 @@
         <v>45974</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="40" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="39" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>316</v>
       </c>
@@ -6938,31 +6935,31 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
-        <v>416</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>407</v>
-      </c>
-      <c r="C6" s="41" t="s">
+      <c r="A6" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="E6" s="44" t="s">
+      <c r="D6" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="E6" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="G6" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>417</v>
-      </c>
-      <c r="I6" s="42">
+      <c r="G6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="I6" s="41">
         <v>46017</v>
       </c>
     </row>
@@ -6994,14 +6991,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -7064,27 +7061,27 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
+      <c r="A6" s="30">
         <v>45975</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="F6" s="32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33">
+      <c r="F6" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32">
         <v>45987</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -7097,49 +7094,49 @@
         <v>373</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+    <row r="8" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32">
         <v>45998</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>373</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+    <row r="9" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32">
         <v>46006</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>409</v>
-      </c>
-      <c r="F9" s="39" t="s">
+      <c r="B9" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" s="38" t="s">
         <v>93</v>
       </c>
     </row>

--- a/docs/Project_Tracker.xlsx
+++ b/docs/Project_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potbelly-my.sharepoint.com/personal/anicia_clayton_potbelly_com/Documents/Desktop/linguallearn-portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="492" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2B390FA-AB78-46FA-B695-B818AF2BA5DB}"/>
+  <xr:revisionPtr revIDLastSave="511" documentId="8_{C9C18196-394D-4E08-AEE3-4532190AC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F6BD9DB-6178-47FA-B7F1-3AE5A76A76F1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="📊 Project Overview" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="423">
   <si>
     <t>LINGUALLEARN AI - PROJECT TRACKER</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>API &amp; Compute Layer</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
   <si>
     <t>Week 2 Day 1</t>
@@ -1232,7 +1235,7 @@
     <t>Later Enhancement items</t>
   </si>
   <si>
-    <t>Delayed 2 weeks</t>
+    <t>In progress</t>
   </si>
   <si>
     <t>8 Weeks (90-120 hours total)</t>
@@ -1313,6 +1316,12 @@
   </si>
   <si>
     <t>MLOps Engineer Portfolio</t>
+  </si>
+  <si>
+    <t>Delayed 4 weeks</t>
+  </si>
+  <si>
+    <t>ML Integration - 100%</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1598,6 +1607,7 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1637,6 +1647,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1838,8 +1854,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFEB9C"/>
       <color rgb="FFC6EFCE"/>
-      <color rgb="FFFFEB9C"/>
       <color rgb="FFFFC7CE"/>
     </mruColors>
   </colors>
@@ -2145,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2161,100 +2177,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="B4" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="B5" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="B7" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="B8" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2263,27 +2279,27 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="B10" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2350,10 +2366,10 @@
         <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F16" s="16">
         <f>IFERROR(COUNTIF('Phase 2 - API &amp; Compute'!E5:E100,"Complete")/COUNTA('Phase 2 - API &amp; Compute'!A5:A100),0)</f>
@@ -2364,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2372,16 +2388,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" s="16">
         <f>IFERROR(COUNTIF('Phase 3 - Multi-Modal'!E5:E105,"Complete")/COUNTA('Phase 3 - Multi-Modal'!A5:A105),0)</f>
@@ -2392,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2400,16 +2416,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="16">
         <f>IFERROR(COUNTIF('Phase 4 - ML Integration'!E5:E100,"Complete")/COUNTA('Phase 4 - ML Integration'!A5:A100),0)</f>
@@ -2420,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2428,16 +2444,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>394</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="16">
         <f>IFERROR(COUNTIF('Phase 5 - Monitoring'!E5:E100,"Complete")/COUNTA('Phase 5 - Monitoring'!A5:A100),0)</f>
@@ -2454,16 +2470,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="16">
         <f>IFERROR(COUNTIF('Phase 6 - CICD'!E5:E100,"Complete")/COUNTA('Phase 6 - CICD'!A5:A100),0)</f>
@@ -2477,12 +2493,12 @@
     </row>
     <row r="23" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <f>COUNTA('Phase 1 - Infrastructure'!A:A)+COUNTA('Phase 2 - API &amp; Compute'!A:A)+COUNTA('Phase 3 - Multi-Modal'!A:A)+COUNTA('Phase 4 - ML Integration'!A:A)+COUNTA('Phase 5 - Monitoring'!A:A)+COUNTA('Phase 6 - CICD'!A:A)</f>
@@ -2491,34 +2507,34 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2526,26 +2542,26 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2580,215 +2596,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="A4" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="A10" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
+      <c r="A16" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
+      <c r="A22" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B23" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B25" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
+      <c r="A27" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B28" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B30" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -2827,22 +2843,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>20</v>
@@ -2850,31 +2866,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
@@ -2882,22 +2898,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="10">
         <v>0.5</v>
@@ -2910,22 +2926,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="10">
         <v>0.5</v>
@@ -2938,22 +2954,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="10">
         <v>0.5</v>
@@ -2966,22 +2982,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -2994,22 +3010,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
@@ -3019,27 +3035,27 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="10">
         <v>1</v>
@@ -3052,22 +3068,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="10">
         <v>0.5</v>
@@ -3080,22 +3096,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="10">
         <v>2</v>
@@ -3105,27 +3121,27 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="10">
         <v>1.5</v>
@@ -3138,22 +3154,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="10">
         <v>0.5</v>
@@ -3166,22 +3182,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G15" s="10">
         <v>1</v>
@@ -3194,22 +3210,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="G16" s="10">
         <v>0.5</v>
@@ -3222,22 +3238,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" s="10">
         <v>2</v>
@@ -3250,22 +3266,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G18" s="10">
         <v>0.5</v>
@@ -3329,22 +3345,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>20</v>
@@ -3352,31 +3368,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
@@ -3384,22 +3400,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="10">
         <v>1</v>
@@ -3412,22 +3428,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="10">
         <v>0.5</v>
@@ -3440,22 +3456,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="10">
         <v>0.5</v>
@@ -3468,22 +3484,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -3492,30 +3508,30 @@
         <v>2</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="10">
         <v>1.5</v>
@@ -3524,30 +3540,30 @@
         <v>2</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="10">
         <v>1</v>
@@ -3560,22 +3576,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="10">
         <v>1</v>
@@ -3588,22 +3604,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="10">
         <v>1</v>
@@ -3616,22 +3632,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="10">
         <v>0.5</v>
@@ -3644,22 +3660,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="10">
         <v>2</v>
@@ -3672,22 +3688,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" s="10">
         <v>2</v>
@@ -3700,22 +3716,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="10">
         <v>1</v>
@@ -3728,22 +3744,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" s="10">
         <v>1.5</v>
@@ -3756,22 +3772,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G18" s="10">
         <v>1</v>
@@ -3784,22 +3800,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -3812,22 +3828,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G20" s="10">
         <v>0.5</v>
@@ -3840,22 +3856,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" s="10">
         <v>1.5</v>
@@ -3868,22 +3884,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G22" s="10">
         <v>1</v>
@@ -3896,22 +3912,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G23" s="10">
         <v>1.5</v>
@@ -3924,22 +3940,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" s="10">
         <v>1</v>
@@ -3952,22 +3968,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G25" s="10">
         <v>0.5</v>
@@ -4031,22 +4047,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>20</v>
@@ -4054,31 +4070,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
@@ -4086,22 +4102,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="10">
         <v>1</v>
@@ -4114,22 +4130,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="10">
         <v>0.5</v>
@@ -4142,22 +4158,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
@@ -4170,22 +4186,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" s="10">
         <v>1.5</v>
@@ -4198,22 +4214,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G9" s="10">
         <v>1</v>
@@ -4226,22 +4242,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="10">
         <v>2</v>
@@ -4254,22 +4270,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="10">
         <v>1.5</v>
@@ -4279,27 +4295,27 @@
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="10">
         <v>0.5</v>
@@ -4312,22 +4328,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="10">
         <v>1</v>
@@ -4340,22 +4356,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="10">
         <v>2</v>
@@ -4368,22 +4384,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" s="10">
         <v>1.5</v>
@@ -4396,22 +4412,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="10">
         <v>1</v>
@@ -4424,22 +4440,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" s="10">
         <v>1</v>
@@ -4452,22 +4468,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" s="10">
         <v>0.5</v>
@@ -4480,22 +4496,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" s="10">
         <v>2</v>
@@ -4504,30 +4520,30 @@
         <v>2.5</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="10">
         <v>1</v>
@@ -4540,22 +4556,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" s="10">
         <v>1</v>
@@ -4568,22 +4584,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G22" s="10">
         <v>2</v>
@@ -4593,27 +4609,27 @@
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G23" s="10">
         <v>1</v>
@@ -4623,27 +4639,27 @@
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G24" s="10">
         <v>1.5</v>
@@ -4653,27 +4669,27 @@
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" s="10">
         <v>1</v>
@@ -4686,22 +4702,22 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G26" s="10">
         <v>0.5</v>
@@ -4714,22 +4730,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G27" s="10">
         <v>1</v>
@@ -4742,22 +4758,22 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G28" s="10">
         <v>1.5</v>
@@ -4770,22 +4786,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G29" s="10">
         <v>0.5</v>
@@ -4849,22 +4865,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>20</v>
@@ -4872,31 +4888,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
@@ -4904,22 +4920,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="10">
         <v>2</v>
@@ -4932,22 +4948,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="10">
         <v>1.5</v>
@@ -4960,22 +4976,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="10">
         <v>0.5</v>
@@ -4988,22 +5004,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" s="10">
         <v>0.5</v>
@@ -5016,22 +5032,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
@@ -5044,22 +5060,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="10">
         <v>1.5</v>
@@ -5072,22 +5088,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="10">
         <v>0.5</v>
@@ -5100,22 +5116,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="10">
         <v>1</v>
@@ -5124,30 +5140,30 @@
         <v>4</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
@@ -5160,22 +5176,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="10">
         <v>1</v>
@@ -5188,22 +5204,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" s="10">
         <v>1</v>
@@ -5213,27 +5229,27 @@
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" s="10">
         <v>1</v>
@@ -5242,30 +5258,30 @@
         <v>2</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" s="10">
         <v>2</v>
@@ -5278,22 +5294,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G18" s="10">
         <v>1.5</v>
@@ -5306,22 +5322,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -5330,28 +5346,28 @@
         <v>2.5</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="10">
         <v>1.5</v>
@@ -5361,27 +5377,27 @@
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" s="10">
         <v>1</v>
@@ -5391,27 +5407,27 @@
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G22" s="10">
         <v>1</v>
@@ -5424,22 +5440,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G23" s="10">
         <v>1.5</v>
@@ -5452,22 +5468,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G24" s="10">
         <v>0.5</v>
@@ -5515,13 +5531,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -5532,54 +5548,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
@@ -5587,22 +5603,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="10">
         <v>2</v>
@@ -5615,22 +5631,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="10">
         <v>1.5</v>
@@ -5643,22 +5659,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="10">
         <v>0.5</v>
@@ -5671,22 +5687,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -5699,22 +5715,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="10">
         <v>3</v>
@@ -5727,22 +5743,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="10">
         <v>2</v>
@@ -5755,22 +5771,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G11" s="10">
         <v>0.5</v>
@@ -5783,22 +5799,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="10">
         <v>1.5</v>
@@ -5811,22 +5827,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
@@ -5839,22 +5855,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" s="10">
         <v>1</v>
@@ -5867,22 +5883,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" s="10">
         <v>1</v>
@@ -5895,22 +5911,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="10">
         <v>1</v>
@@ -5923,22 +5939,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" s="10">
         <v>1</v>
@@ -5951,22 +5967,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G18" s="10">
         <v>0.5</v>
@@ -5979,22 +5995,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -6007,22 +6023,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="10">
         <v>2</v>
@@ -6035,22 +6051,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" s="10">
         <v>1.5</v>
@@ -6063,22 +6079,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G22" s="10">
         <v>1.5</v>
@@ -6091,22 +6107,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G23" s="10">
         <v>0.5</v>
@@ -6170,54 +6186,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
@@ -6225,22 +6241,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="10">
         <v>2</v>
@@ -6253,22 +6269,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="10">
         <v>1.5</v>
@@ -6281,22 +6297,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="10">
         <v>0.5</v>
@@ -6309,22 +6325,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -6337,22 +6353,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
@@ -6365,22 +6381,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="10">
         <v>2</v>
@@ -6393,22 +6409,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="10">
         <v>1.5</v>
@@ -6421,22 +6437,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="10">
         <v>1</v>
@@ -6449,22 +6465,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
@@ -6477,22 +6493,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" s="10">
         <v>1</v>
@@ -6505,22 +6521,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G15" s="10">
         <v>0.5</v>
@@ -6533,22 +6549,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" s="10">
         <v>1.5</v>
@@ -6561,22 +6577,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="10">
         <v>1.5</v>
@@ -6589,22 +6605,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" s="10">
         <v>1</v>
@@ -6617,22 +6633,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -6645,22 +6661,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="10">
         <v>2</v>
@@ -6673,22 +6689,22 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" s="10">
         <v>1.5</v>
@@ -6701,22 +6717,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G22" s="10">
         <v>1</v>
@@ -6729,22 +6745,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G23" s="10">
         <v>0.5</v>
@@ -6757,22 +6773,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" s="10">
         <v>1</v>
@@ -6835,131 +6851,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="A1" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I4" s="19">
         <v>45974</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="39" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="40" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I5" s="22">
         <v>45975</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>404</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="I6" s="41">
+      <c r="E6" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="I6" s="42">
         <v>46017</v>
       </c>
     </row>
@@ -6974,10 +6990,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6991,33 +7007,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7025,19 +7041,19 @@
         <v>45967</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7045,99 +7061,119 @@
         <v>45974</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
+        <v>45975</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
-        <v>45975</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32">
+      <c r="E6" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
         <v>45987</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
+        <v>45998</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32">
-        <v>45998</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>395</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="46">
         <v>46006</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="D9" s="38" t="s">
+      <c r="B9" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="D9" s="47" t="s">
         <v>406</v>
       </c>
-      <c r="F9" s="38" t="s">
-        <v>93</v>
+      <c r="E9" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>46021</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
